--- a/deuChatbot/research_result/table_to_json(3500_500).xlsx
+++ b/deuChatbot/research_result/table_to_json(3500_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20991,6 +20991,6877 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보가 아닌, 일반적인 디자인 관련 내용으로 구성되어 있습니다. 실기시험의 구체적인 주제, 준비물, 시험시간 등은 누락되어 있으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기시험의 구체적인 내용과 다르게 일반적인 디자인 교육에 대한 설명으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험과 관련된 내용을 다루고 있지만, 원본 텍스트의 구체적인 정보와는 거리가 있습니다. 따라서 관련성은 있지만, 핵심적인 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 흐름이 약간 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트의 구조와 흐름을 따르지 않아 일관성이 떨어집니다. 각 항목 간의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르며, 실기시험의 구체적인 내용이 잘못 전달되고 있습니다. 예를 들어, 실기시험 일정과 관련된 정보가 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 디자인 관련 내용을 다루고 있지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 많아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편이지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6400057793526702</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기고사는 시각디자인, 산업디자인, 공예디자인 분야에서 진행됩니다. 실기고사 일정은 2024년 1월 17일 수요일입니다.
+실기고사의 주요 내용은 다음과 같습니다:
+1. **시각디자인**:
+   - **그래픽 디자인**: 로고, 포스터, 패키지 디자인 등 다양한 그래픽 작업 수행.
+   - **웹 디자인**: 웹사이트의 UI/UX 디자인 및 구현.
+2. **산업디자인**:
+   - **제품 디자인**: 일상 생활에 필요한 제품을 디자인하고, 그 과정에서의 아이디어와 창의력을 보여줍니다.
+   - **디지털 제작**: 3D 모델링 및 프로토타입 제작.
+3. **공예디자인**:
+   - **기초 공예 작업**: 목공, 청동공, 세라믹 등 다양한 기초 공예 작업 수행.
+   - **창의적 표현**: 개인의 창의력을 통해 작품을 완성합니다.
+실기고사에서는 학생들의 실력과 창의성을 평가하기 때문에, 준비 과정에서 다음과 같은 점들을 주의해야 합니다:
+- **개인 아이디어와 창의성**: 자신의 독특한 아이디어를 표현하는 것이 중요합니다.
+- **기술적 능력**: 디자인 소프트웨어 사용 및 기초 공예 작업 수행 능력을 보여줍니다.
+- **시간 관리**: 실기고사 시간 내에 모든 작업을 완료해야 하므로, 효율적인 시간 관리를 해야 합니다.
+실제로는 학교에서 제공하는 예시 문제나 모의고사를 통해 준비를 하는 것이 좋습니다. 또한, 관련 분야의 전문가와 상담하거나, 동아리 활동 등을 통해 경험을 쌓는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8280376961905761</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인, 사고의 전환'입니다.
+준비물은 다음과 같습니다:
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+실기 주제는 주제 A와 주제 B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울, 콜라병과 계절 등의 주제가 있습니다.
+화지 크기는 켄트지3절입니다.
+시험 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회 목록과 관련된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9196794932849359</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 모집종목별로 인정하는 대회들은 다음과 같습니다.
+1. **배드민턴(남)**:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. **축구(남)**:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회들에서 입상하거나 우승한 경력이 있다면 해당 모집종목에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제와 관련된 모든 세부사항이 올바르게 전달되었습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 핵심 포인트를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8151400083263159</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제는 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 주제들 중에서 각 1개씩 선정하여 연결된 주제를 작성하게 됩니다. 예시로 잠자리와 저울을 연결한 주제를 생각해볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 점수가 학생부 교과 전형에 반영되지 않는다는 사실을 정확하게 반영하고 있으며, 추가적으로 출결 점수가 0%로 표시된다는 정보도 포함되어 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 점수가 반영되지 않는다는 주장을 반복적으로 확인하고 있습니다. 따라서 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7154134489834484</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 전형 요소 반영 비율을 보면, 모든 모집단위에서 출결은 0%로 표시되어 있습니다.
+따라서, 나군 학생부교과(농어촌학생전형), 나군 학생부교과(평생학습자전형), 나군 학생부교과(성인학습자(정원내)전형), 나군 학생부교과(성인학습자(정원외)전형), 나군 학생부종합(재직자전형), 나군 학생부종합(조기취업형계약학과전형) 등에서 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원이 없다고 주장하고 있지만, 원본 텍스트에서는 17명을 모집한다고 명시하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 모집이 있다고 하였으나, 생성된 응답에서는 모집이 없다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하여 주제에 대한 적절한 답변이 아닙니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 잘못 전달하고 있습니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.7765631596314415</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 모집이 없습니다. 해당 학과는 다른 계열이나 단과대학에서 모집이 이루어집니다. 자세한 정보는 공지사항을 확인하시거나 주신 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 인문사회과학대학 영어영문학과의 모집 인원에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 총 28명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 제공된 정보와 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 답변을 제공하지 않고, 다른 학과의 모집 인원에 대한 언급만 하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 왜곡하고 있으며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5856228532387432</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 모집인원이 직접적으로 언급되어 있지 않습니다. 다른 학과들의 모집인원만 기재되어 있습니다.
+더 정확한 답변을 위해서는 "나군 일반학생 전형" 또는 "인문사회과학대학의 영어영문학과"에 대한 모집인원 정보를 확인해야 합니다. 필요하다면, 제공된 링크를 통해 최신 정보를 확인해 보세요: https://ipsi. deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8291031121253111</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 영어영역 등급에 따른 점수를 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 영어 등급에 따른 점수에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장이 한국어에서 중국어로 번역된 점이 있어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.6122689796462232</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>以下是根据韩国语提供的信息，关于英语等级对应的分数：
+| 等级 | 分数 |
+| --- | --- |
+| 1   | 139 |
+| 2   | 131 |
+| 3   | 123 |
+| 4   | 115 |
+| 5   | 107 |
+| 6   | 99  |
+| 7   | 91  |
+| 8   | 83  |
+| 9   | 75  |
+例如，如果英语等级是1，则对应的分数为139。</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 농어촌학생전형에 지원할 수 있다고 잘못 언급하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능성을 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 나군 농어촌학생전형에 대한 정보를 제공하지만, 원문에서 명시된 예술고 학생의 지원 불가능성에 대한 핵심 정보를 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르게 예술고 학생이 지원할 수 있다고 잘못된 정보를 제공합니다. 원문과의 비교에서 명백한 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 원문과의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 전체적으로 원문과의 의미적 일치가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.592588267055715</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>『나군』에서 농어촌학생전형은 고등학교 졸업(예정)자 또는 검정고시 출신자에게만 지원이 가능합니다. 예술고 학생도 일반적으로는 이 전형에 지원할 수 있지만, 해당 전형의 지원 자격 조건을 확인해야 합니다.
+제출서류 중 고교 졸업(예정)자나 검정고시 출신자의 경우, 학교생활기록부가 필요합니다. 예술고 학생이라도 일반 고등학교와 유사한 학교생활기록부를 제출해야 합니다.
+따라서, 예술고 학생이 나군 농어촌학생전형으로 지원하려면, 해당 전형의 자격 조건을 확인하고, 요구되는 서류들을 준비해야 합니다. 자세한 내용은 「나군」의 공식 웹사이트를 참조하시거나, 입학처에 문의하시는 것이 좋습니다.
+[참고 링크] https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 정확하게 반영하고 있습니다. 그러나 추가된 테이블 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지만, 추가된 테이블 정보는 원본 텍스트와 일관성이 떨어지는 부분이 있습니다. 특히, 제자리 멀리뛰기 4등급의 기록에 대한 정보가 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 4등급 기록과 배점에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 테이블 정보가 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 의미를 혼란스럽게 할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 테이블 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8743383244037264</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+| 등급 | 제자리 멀리뛰기( cm ) { 남 / 여 / 배점 } | Z-런 { 남 / 여 / 배점 } |
+|------|-----------------------------------------|--------------------------|
+| 4    | 268～271, 218~221, 250                 | 14.80~14.99, 15.70~15.89, 275 |
+따라서 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6717015591240947</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 실기/실적(경기실적우수자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서, 동의대학교 경기지도학과의 출결 반영 비율은 **12%**입니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 물리치료학과의 모집 인원 수에 대한 정확한 정보를 제공하지 않고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원문에서는 4명을 모집한다고 명시되어 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 명확히 언급된 모집 인원 수를 부정하고, 추가적인 정보를 요구하는 내용으로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 물리치료학과의 모집 인원 수에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보에 대한 언급이 있지만 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 다소 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원문에서 명시된 모집 인원 수를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 질문에 대한 적절한 답변을 제공하지 못하고 있습니다. 정보의 맥락이 잘못 해석되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성이 떨어져서 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.6251997556652297</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 가군에서 물리치료학과에 대한 정원 내 모집 인원 수가 직접적으로 기재되어 있지 않습니다. 
+물리치료학과 관련된 정보를 찾기 위해서는 추가적인 데이터 또는 공식 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조해야 할 것입니다.
+물리치료학과에 대한 정원 내 모집 인원 수가 궁금하시다면, 해당 대학의 공식 웹사이트나 입시 안내 센터에서 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.502713240903668</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다. 자세한 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 반영하고 있지만, "제공된 데이터 내에서는 명시되어 있지 않습니다"라는 표현은 다소 모호하게 느껴질 수 있습니다. 그러나 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저 기준이 없다는 점을 언급하고 있지만, "다른 전형이나 학과에서의 수능 최저기준만이 포함되어 있습니다"라는 부분은 다소 혼란을 줄 수 있습니다. 이는 일관성이 떨어지는 요소로 작용합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 깊으며, 수능 최저 기준에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 약간의 모호함이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "제공된 데이터 내에서는 명시되어 있지 않습니다"라는 표현이 다소 애매할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 정확성이 높습니다. 그러나 일관성과 명확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 대체로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5288230305487973</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보가 제공된 데이터 내에서는 명시되어 있지 않습니다. 다른 전형이나 학과에서의 수능 최저기준만이 포함되어 있습니다.
+만약 특정 학과의 수능 최저기준을 확인하려면, 해당 학과와 관련된 전형 요소 반영 비율 및 수능최저기준 항목을 찾아보시거나, 대학 입학처 웹사이트를 방문하여 자세한 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신설된 학과 목록을 정확하게 나열하고 있으며, 각 학과의 형태에 대한 설명도 포함되어 있습니다. 그러나 "심리학과"가 단일 학과로 신설되었다는 부분은 다소 모호하게 표현되어 있어, 정확한 정보 전달에 약간의 부족함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 신설된 학과를 나열하고 있습니다. 다만, "심리학과"에 대한 설명이 원본 텍스트의 정보와 약간의 차이를 보이므로 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 문장 구조가 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 신설된 학과에 대한 정보가 명확하게 전달됩니다. 그러나 "심리학과"에 대한 추가 설명이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 대체로 정확하게 반영하고 있습니다. 그러나 "심리학과"의 신설 형태에 대한 설명이 다소 모호하여 정확성에 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 "심리학과"에 대한 설명이 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장 구조가 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.6931170694848717</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)"가 있습니다. 그러나 "심리학과"는 단일 학과 신설로, 나머지 학과들은 새로운 학부 형태로 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '학생부 교과'와 '출결'이라는 잘못된 항목을 포함하고 있으며, 원본 텍스트의 전형요소 반영비율과 일치하지 않습니다. 원본 텍스트는 서류와 면접의 비율을 명확히 제시하고 있으나, 생성된 응답은 이를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 서류와 면접의 비율을 명확히 제시하고 있지만, 생성된 응답은 '학생부 교과'와 '출결'이라는 전형요소를 언급하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 정보를 왜곡하여 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 유지하고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 불일치로 인해 완전한 일관성을 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전형요소 반영비율에 대한 잘못된 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 왜곡하고 있어 의미적으로 적절하지 않습니다. 원본의 의도를 잘못 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8407587143656647</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 70%
+- 출결: 30%
+이 비율로 합격자를 선발합니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시하고 있지만, 생성된 응답에서는 전혀 다른 학과 목록을 제시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고, 잘못된 학과 목록을 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 잘못되어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7235007929524971</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과로는 다음과 같은 과들이 있습니다:
+1. **국어국문학과**
+2. **중어중국학과**
+3. **일본학과**
+4. **영어영문학과**
+5. **문헌정보학과**
+6. **평생교육·청소년상담학과**
+7. **아동학과**
+8. **유아교육과**
+9. **광고홍보학과**
+10. **미디어커뮤니케이션학과**
+11. **법학과**
+12. **경찰행정학과**
+13. **소방방재행정학과**
+위와 같은 학과에서는 수능 점수에 가산점을 적용하여 총점으로 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다고 명시된 원문과 상충합니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 영역별로 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 과목의 성적이 25%씩 반영된다고 하여 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원문에서 강조한 100% 반영이라는 핵심 내용을 놓치고 있습니다. 따라서 관련성은 있지만, 핵심 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 논리적 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 원문은 수능 성적을 100% 반영한다고 했으나, 생성된 응답은 각 영역별로 25%씩 반영된다고 하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 불일치로 인해 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 의미를 전달하고 있으나, 원문과의 불일치로 인해 의미가 왜곡되었습니다. 따라서 적절성은 있지만, 원문과의 일치성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7378940191427508</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **반영 영역**: 국어, 수학, 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)
+- **반영 비율**: 각 영역별로 25%씩 반영됩니다.
+따라서, 국어, 수학, 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)의 성적은 각각 25%씩 반영되며, 이들 점수들의 합이 최종 점수가 됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 완전히 부정하고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에 명시된 날짜를 전혀 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 특정 날짜를 명시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없습니다. 원본 텍스트에서 제공된 정보에 대한 직접적인 언급이 없으며, 관련성이 전혀 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 정확성이 전혀 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7042472033857136</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 2024학년도 가군 실기고사 날짜에 대한 내용이 없습니다. 다른 관련 정보나 자세한 일정을 확인하려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있습니다. 대신 레저스포츠학과와 태권도학과가 제외되었다고 언급하고 있어, 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 특정 학과들이 제외된다고 명시하고 있지만, 생성된 응답에서는 다른 학과들이 제외되었다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 원본의 핵심 정보가 왜곡되어 전달되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본과의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 의미와 맥락을 잘못 전달하고 있으며, 일부는 적절하지만 전반적으로 부적절한 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.6964987944718886</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 레저스포츠학과와 태권도학과가 제외됩니다. 이는 전형 요소 반영비율에서 확인할 수 있습니다.
+"전형요소 반영비율": [
+    {
+        "전형 유형": "수능 위주",
+        "전형명": "나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외)",
+        "모집 인원": 401,
+        ...
+    }
+], 
+"체육학과", "경기지도학과"가 제외된 것을 확인할 수 있습니다. 이는 전형명에서 명시되어 있으며, 이들 학과는 나군 수능(일반학생전형)에서 모집 대상이 되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적으로 전형요소 반영비율에 대한 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준과 전형요소 반영비율에 대한 정보를 제공하여 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8619526531249975</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 전형의 경우, 전형요소 반영비율이 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 0%
+- 수능: 100%
+따라서, 이 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에는 여러 학과의 변경 사항이 나열되어 있지만, 생성된 응답은 하나의 학과만 언급하고 있어 다소 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전체적인 맥락에서 다른 학과의 변경 사항을 포함하지 않아 일관성이 떨어집니다. 원본 텍스트의 모든 학과 변경 사항을 다루지 않기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 보육가정상담학과의 변경 사항을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 명확한 흐름을 가지고 있습니다. 그러나 여러 학과의 변경 사항을 다루지 않기 때문에 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 변경 사항에 대한 정확한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 다른 학과 변경 사항을 누락하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 모든 학과의 변경 사항을 포함하지 않아 다소 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 다른 학과의 변경 사항을 포함하지 않아 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 그러나 모든 정보를 포함하지 않아 완전한 이해를 제공하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5425556030172721</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한, 이 학과는 구분명에 따라 학부에서 학과로 분리된 것으로 보입니다.
+상세 내용은 다음과 같습니다:
+- 2023학년도: 보육·가정상담학과
+- 2024학년도: 아동학과
+이와 같이 명칭 변경 및 분류 변경이 이루어졌습니다. 더 자세한 정보는 공식 웹사이트를 참조하시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 마감일에 대한 정보가 일치합니다. 추가된 정보도 원본의 내용을 보완하는 형태로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7619551719124888</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷) 마감일은 2024년 1월 6일까지입니다. 자세한 일정은 다음과 같습니다:
+- **원서접수(인터넷)**: 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+원서접수는 이 기간 내에 완료해야 하며, 마감일은 2024년 1월 6일입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전형 요소 변화에 대한 일부 정보를 포함하고 있지만, 학생부종합(성인학습자전형)과 반영학기 및 반영과목에 대한 정보가 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 일부 일관성을 유지하고 있지만, 원본 텍스트의 모든 요소를 포함하지 않기 때문에 일관성이 떨어집니다. 특히, 학생부종합(성인학습자전형)과 관련된 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있지만, 원본 텍스트의 모든 주요 포인트를 다루지 않기 때문에 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형 요소의 변화에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 모든 세부 사항을 반영하지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 세부 사항이 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7431456703044945</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역 변경**
+   - 2023년도: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - 2024년도: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+2. **전형요소 반영비율 변경**
+   - 2023년도: 실기/실적(경기실적우수자전형): 학생부교과(출결포함)30%+서류(실적)70%
+   - 2024년도: 실기/실적(경기실적우수자전형): 학생부교과18%+출결12%+서류(실적)70%
+3. **학생부종합 평가영역 변경**
+   - 2023년도: 서류(학생부)70%+면접30%
+   - 2024년도: 서류(학생부)60%+면접40%
+이러한 변화는 학생들의 지원 자격과 평가 방식에 영향을 미칠 수 있으므로, 지원자들은 이 점들을 고려하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '나군'이라는 잘못된 정보를 포함하고 있으며, 원본 텍스트는 '가군'에 대한 내용입니다. 또한, 학생부교과와 출결 비중에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. '가군'이 아닌 '나군'으로 잘못 언급되었고, 추가된 비중 정보는 원본과 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기 비중에 대한 정보를 제공하고 있으나, 원본 텍스트에 없는 추가적인 세부사항이 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '가군'이 아닌 '나군'으로 잘못 언급되었고, 원본 텍스트에 없는 추가적인 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6939872842265421</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 실기/실적 전형에서는 실기가 70%의 비중을 차지합니다. 
+상세내용:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(실적): 70%
+따라서, 실기는 총점에서 70%를 차지하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 학부의 목표에 대한 설명이 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 학부의 세부 전공과 목표를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.841231197528725</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 '라이프융합학부'는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 학부는 삶의 질 향상을 위한 다양한 분야에서의 융합적 교육을 제공하는 것을 목표로 하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 체육학과에 대한 정보를 제공하지만, 레저스포츠학과에 대한 언급이 없고, 체육학과의 실기고사 종목과 배점에 대한 정보는 원본 텍스트에 포함되어 있지 않은 추가적인 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(레저스포츠학과의 누락 및 추가적인 배점 정보)를 포함하고 있어 일관성이 부족합니다. 
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과에 대한 정보를 제공하지만, 레저스포츠학과에 대한 정보가 없기 때문에 원본 텍스트의 주요 주제와 완전히 일치하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 종목에 대한 배점이 명확하게 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트에 명시된 레저스포츠학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 점수가 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과에 대한 정보를 제공하지만, 레저스포츠학과에 대한 정보가 없기 때문에 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6555269514386832</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 가군에서 실기고사를 참여해야 하는 학과는 체육학과입니다. 체육학과에서는 Z-런 종목을 실시하며, 해당 종목에 대한 배점은 230점(23%)입니다.
+추가적으로, 체육학과 기록별 배점표를 보면 다음과 같은 내용이 포함되어 있습니다:
+- 제자리 멀리뛰기
+- 메디신볼 던지기
+- Z-런
+각 종목에 대한 배점은 다음과 같습니다:
+1. 제자리 멀리뛰기: 240점(23%)
+2. 메디신볼 던지기: 230점(23%)
+3. Z-런: 230점(23%)
+따라서, 체육학과에서 실기고사를 준비하려면 이 세 가지 종목 모두에 대한 성적을 얻어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과를 일부만 언급하고 있으며, 나머지 학과들(디자인조형학과, 체육학과, 경기지도학과)을 누락했습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 지원 가능한 학과의 수를 줄여서 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기/실적 위주 전형에 대한 정보를 제공합니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보의 누락으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 지원 가능한 학과를 잘못 기술하고 있으며, 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 여러 차원에서의 품질이 혼합되어 있으며, 사실성과 일관성에서 낮은 점수를 받았지만 관련성과 유창성에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.673233245188663</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"은 다음과 같은 학과에서 지원할 수 있습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 외에는 실기/실적 위주의 전형이 없습니다.
+따라서, 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"을 지원하려면 위의 두 학과 중에서 선택하여 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.7765419084286778</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 신설되었습니다. 이 학부에서는 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 등 세 가지 전공을 제공합니다.
+따라서, 동의대 라이프융합학부에서 제공하는 전공은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+만약 추가 정보가 필요하시다면, 해당 대학의 공식 웹사이트를 참조해보시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있습니다. 또한, 응답이 중국어로 작성되어 있어 원문과의 언어적 일관성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 농어촌학생전형에 대한 언급이 없고, 언어가 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로 관련성이 있지만, 원문에서 제공된 특정 정보(농어촌학생전형에 대한 제한)가 누락되어 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 언어적 차이로 인해 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원문과의 언어적 차이로 인해 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일반학생전형에 대한 지원 가능성을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 언어적 차이와 정보 누락으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하고 있지만, 원문과의 언어적 차이로 인해 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 언어적 차이로 인해 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5468006408636759</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请东国大学的一般学生招生类型。根据提供的信息，在"나군 학생부교과(농어촌학생전형) - 정원외 지원자격"部分中提到：
+- 特殊目的高中（科学高、国际高、外语高）：支持。
+所以你可以申请，但请注意具体的要求和限制可能有所不同，请仔细查看相关招生简章或直接访问东国大学的官方网站以获取最准确的信息。如果需要进一步的帮助或有其他问题，可以随时询问。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 전혀 반영하지 않고 있으며, 잘못된 정보와 혼란을 초래하는 내용을 포함하고 있습니다. 원본 텍스트에서 언급된 학과와 모집 인원에 대한 정보가 전혀 언급되지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트의 내용을 무시하고 다른 학과에 대한 정보를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트에서 요구하는 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다. 문장 구조는 괜찮지만, 주제와의 관련성이 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하며, 원본 텍스트와의 연결이 약합니다. 정보가 일관되게 연결되지 않아 독자가 이해하기 어려운 부분이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 정확한 내용을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 다루고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5886766746320465</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보는 제공된 데이터로 직접 확인할 수 없습니다. 하지만, 제공된 예시에서는 체육학과와 경기지도학과 등 특정 학과가 모집 인원을 공유하고 있습니다.
+만약 가장 많은 인원을 모집하는 학과를 알고 싶다면, 전체 모집인원을 합산하여 비교하거나, 각 단과대학의 모집인원을 더 자세히 확인해야 합니다. 제공된 정보로는 특정 학과가 가장 많이 모집되는 것을 명확하게 알 수 없습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신의 모집인원 및 전형 요소 등을 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 지원할 수 있는 자격에 대한 잘못된 정보를 제공합니다. 특수목적고등학교 출신자는 지원할 수 없다고 명시되어 있으나, 생성된 응답에서는 지원 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 지원할 수 없다고 명시되어 있는데, 생성된 응답은 지원할 수 있다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본과의 불일치로 인해 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 지원 자격에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5122981483892783</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，根据提供的信息，东国大学的学生部课程（农村学生选拔）支持你申请。具体来说，在"나군 학생부교과(농어촌학생전형) - 정원외 지원자격"部分中提到：
+- 特殊目的高中（科学高、国际高、外语高除外）：可以申请。
+所以，如果你是特殊目的高中学生但不是科学高、国际高或外语高，则你可以申请东国大学的学生部课程（农村学生选拔）。但是，请注意具体的科目和要求可能会有所不同，建议你仔细查看相关详细信息或者访问“https://ipsi. deu. ac. kr/main. do”以获取最新和最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 허위 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 부적절하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6121676713875134</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이러한 정보를 바탕으로, 소프트웨어공학부의 합격자들은 비교적 높은 성적을 보여주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와는 반대로 성적 정보를 제공하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계에서 비논리적인 점이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 원본 텍스트는 정보가 없다고 명시하고 있지만, 생성된 응답은 반대로 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.577622322257682</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초 합격자 평균 성적은 다음과 같습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이러한 정보를 바탕으로, 소프트웨어공학부 최초 합격자의 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 434.70과 영어 등급 3.77, 수능 4개 영역 등급 4.49로 평균적으로 높은 성적을 보였습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일부 정확한 정보를 포함하고 있지만, 추가된 내용(등록 관련 정보 등)은 원본 텍스트에 명시되어 있지 않으며, 일부 날짜와 내용이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(등록 일정 및 방법 등)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 핵심 정보와 충돌하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트에 없는 추가적인 정보가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 흐름과 일관성이 떨어져서 전체적으로 일관된 구조를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 왜곡하거나 추가하여 정확성이 떨어집니다. 특히 등록 관련 정보는 원본에 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석될 수 있는 정보가 포함되어 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 추가된 정보로 인해 혼란스러울 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8472493077614598</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록:
+   - 날짜: 2024년 2월 2일 (금) 14:00
+   - 내용: 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+2. 최초 합격자 등록:
+   - 날짜: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 시간: 은행 마감시간 내
+3. 충원 합격자 발표 및 등록:
+   - 1차 발표: 2024년 2월 14일 (수) 09:00
+   - 1차 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+   - 2차 발표: 2024년 2월 15일 (목) 09:00
+   - 2차 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+4. 충원 합격자 3차 이후 발표 및 등록:
+   - 날짜: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - 방법: 개별 전화 통보로 이루어집니다.
+이 일정은 합격자 발표와 등록금 납부를 위한 주요 시점입니다. 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보가 아닌 합격자 발표 및 등록금 납부에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트의 핵심 정보와 관련이 없으며, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접고사 일정에 대한 질문에 대한 답변으로 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와의 관련성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와의 관련성이 떨어져서 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3448096686212848</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 합격자 발표 및 등록금 납부 충원 합격자 3차 이후 개별 전화 통보를 받으실 예정입니다. 정확한 일시는 개별 통보를 통해 안내받으셔야 합니다. 만약 추가 정보가 필요하시다면, 주어진 링크를 참조해 보세요: https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 반영하고 있지만, "2024학년도 한의예과에 대한 최저학력 기준은 제공된 정보에서 확인할 수 없습니다."라는 문구는 약간의 모호함을 포함하고 있어 완전한 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, "제공된 정보에서 확인할 수 없습니다."라는 표현은 원본의 명확한 진술과 다소 상충할 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 추가 정보를 제공하는 내용이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 약간의 모호함이 있어 완전한 일관성을 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "제공된 정보에서 확인할 수 없습니다."라는 표현이 다소 부정확하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 약간의 모호함이 있어 완전한 적절성을 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 모호하게 느껴질 수 있어 완전한 명확성을 떨어뜨립니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.566056613297527</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도 한의예과에 대한 최저학력 기준은 제공된 정보에서 확인할 수 없습니다. 추가적인 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 대학 관계자에게 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 부합합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5770160323172154</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도에 정시모집을 할 때 수능최저학력기준은 없습니다. 각 학과별로 수능 위주 또는 실기/실적 위주의 전형으로 구분되어 있으며, 해당 전형의 특성에 따라 수능 최저 기준이 설정되지 않았습니다.
+더 자세한 정보를 얻고자 한다면 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 포함하고 있지만, 추가된 "등록" 시간과 "개별 전화 통보"에 대한 내용은 원본 텍스트에 명시되어 있지 않다. 따라서 일부 정보는 정확하지만, 원본과의 차이가 있어 점수를 낮게 평가했다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하지만, 추가된 등록 시간과 개별 전화 통보 내용은 원본과 일치하지 않으므로 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 발표 일정에 대한 정보를 제공하고 있다. 따라서 매우 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달된다. 그러나 추가된 정보가 원본과의 일관성을 해치므로 완벽한 일관성은 없다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 추가되어 있어 정확성 점수가 낮아졌다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 추가된 정보가 원본과의 의미적 일관성을 해치므로 약간의 점수를 낮췄다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8589636820273757</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+이후에는 개별 전화 통보를 통해 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않지만, 원본 텍스트에는 충원합격자 발표 일정이 명확히 나와 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 추가합격자에 대한 정보만 언급하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 주된 내용인 충원합격자 발표 일정에 대한 정보는 제공하지 않고 있습니다. 따라서 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4206659883957252</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자(동점자)의 발표일은 명시되어 있지 않습니다. 추가합격자 발표 일정과 관련하여 자세한 정보를 얻으려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하거나 대학 입학처에 문의하시는 것이 좋습니다. 해당 웹사이트에서 최신 공지사항을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 명확한 정보를 제공하지 않는다고 언급하고 있지만, 원본 텍스트에서는 추가 모집이 발생할 수 있는 조건이 명확히 설명되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 추가 모집이 언급되지 않았다고 주장합니다. 이는 원본 텍스트와 모순되므로 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집에 대한 일반적인 정보와 웹사이트 링크를 제공하지만, 원본 텍스트의 구체적인 내용과는 관련성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용이지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 추가 모집에 대한 정보가 없다고 잘못 주장하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 잘 맞지 않기 때문에 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5295430484099652</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 추가 모집에 대한 내용은 명확히 언급되어 있지 않습니다. 따라서 추가 모집이 있는지 없는지는 확실하지 않습니다.
+만약 추가 모집이 있다면, 일반적으로 다음과 같은 요소들이 포함될 수 있습니다:
+1. 모집 단위와 모집 인원
+2. 지원 가능한 고교 유형과 자격 조건
+3. 수능 반영 영역 및 비율
+4. 면접 평가 영역 및 배점
+이런 내용들을 확인하려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하는 것이 좋습니다. 해당 사이트에서 가장 정확하고 최신의 추가 모집 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 모집인원과 지원자격에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 모집인원이 11명으로 명시되어 있으나, 생성된 응답에서는 7명으로 잘못 기재되어 있습니다. 또한, 재직기간에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 모집인원과 지원자격에 대한 정보가 다르며, 추가된 재직기간과 산업체 적용범위는 원본 텍스트에 없는 내용입니다. 이러한 점에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 주요 내용과는 다소 차이가 있습니다. 일부 정보는 관련이 있지만, 전반적으로 원본 텍스트의 핵심 사항을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 전반적으로 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 정보가 추가되면서 흐름이 약간 어색해졌습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 모집인원, 지원자격, 재직기간 등에서 잘못된 정보를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트와의 차이로 인해 의미적으로 적절하지 않은 부분이 있습니다. 특히, 잘못된 정보가 포함되어 있어 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6523641766527805</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 학생부종합전형의 일환으로, 성인 또는 평생학습자를 대상으로 합니다. 주요 특징과 요구사항을 요약하면 다음과 같습니다:
+1. **모집인원**: 7명입니다.
+2. **재직기간**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다.
+3. **산업체 적용범위**:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 4대 보험 가입대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있습니다.
+4. **전형요소 반영비율**: 서류 70%, 면접 30%입니다.
+또한, 지원자격과 서류제출 등에 대한 자세한 내용은 제공된 정보를 참고하시면 좋습니다. 필요하다면 추가로 확인해보시는 것이 좋겠습니다. 더 궁금하신 점이 있으시다면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 정보가 아닌 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6542550514345936</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **산업체 적용 범위**:
+   - 국가 또는 지방자치단체 및 공공 단체 (소속 직원의 경우 포함)
+   - 근로기준법 제11조에 따라 상시 근로자 5인 이상 사업체
+   - 4대 보험 중 1개 이상 가입된 사업체 (창업 또는 자영업자 포함)
+2. **재직기간 산정**:
+   - 2024년 3월 1일 기준으로 총 재직 기간이 3년 이상 (예정) 이어야 함
+   - 재직 기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정됩니다.
+   - 2개 이상의 산업체에 재직한 경우 총 재직 기간을 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않습니다.
+   - 군 의무 복무 경력도 재직 기간으로 인정됩니다.
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 평가 진행 방식과 관련된 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 언급이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하는 반면, 생성된 응답은 평가 방식에 대한 설명으로 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보에 집중하고 있지만, 생성된 응답은 다른 주제에 대한 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 길고 복잡하여 가독성을 떨어뜨릴 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사에 대한 구체적인 정보가 누락되어 있습니다. 원본 텍스트의 핵심 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않습니다. 원본 텍스트의 핵심 정보가 누락되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관련성이 낮아 혼란을 줄 수 있습니다. 정보가 명확하게 전달되지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4596356442157661</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각 모집단위별 입학사정관이 평가를 진행합니다. 따라서 구체적인 장소는 모집단위에 따라 다릅니다. 예를 들어, 인문사회과학대학의 법학과에서는 해당 학과의 입학사정관들이 실기고사를 진행할 것입니다.
+만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다. 해당 사이트에서는 각 모집단위별 입학사정관의 연락처와 평가 장소 등 구체적인 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 주제와 관련 없는 내용이 포함되어 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 어느 정도 일관성을 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 주제와의 관련성이 떨어져서 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3671504084810905</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **실기종목**: 
+   - **제자리 멀리뛰기**
+   - **메디신볼 던지기**
+   - **Z-런**
+2. **각 종목별 배점(비율)**:
+   - **제자리 멀리뛰기**: 240점 (24%)
+   - **메디신볼 던지기**: 243점 (23%)
+   - **Z-런**: 230점 (23%)
+3. **각 종목별 준비물**:
+   - **기초디자인, 사고의 전환** (시각디자인, 산업디자인, 공예디자인 모집단위):
+     - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **제자리 멀리뛰기**: 특별한 준비물 필요 없음 (신체 능력 향상에 초점)
+   - **메디신볼 던지기**: 메디신볼
+   - **Z-런**: 특별한 준비물 필요 없음 (신체 능력 향상에 초점)
+4. **실기주제 및 화지크기**:
+   - **기초디자인, 사고의 전환** (시각디자인, 산업디자인, 공예디자인 모집단위):
+     - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+     - 화지크기: 켄트지3절 (시각디자인), 켄트지2절 (산업디자인, 공예디자인)
+5. **시험기간**:
+   - **기초디자인, 사고의 전환**: 5시간
+따라서 체육학과의 실기고사는 각 종목별로 준비물과 시간을 맞춰 준비해야 합니다. 특히 신체 능력 향상에 초점을 두어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 원문 내용을 완전히 반대하는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시되어 있는데, 생성된 응답에서는 전화 통보를 받을 수 있다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보가 일부 포함되어 있지만, 주된 내용이 원문과 상반되므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성이 있지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 맞지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 모두에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상반되는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.7129707823320914</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개별 조회를 통해 결과를 확인하실 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령하실 수 있습니다.
+발표일정은 다음과 같습니다:
+- 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 발표와 등록 일정은 위와 같습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 원본 텍스트에서 명시된 "수시모집 결과에 대한 정보가 포함되어 있지 않다"는 점을 명확히 전달하지 못하고 있습니다. 또한, 중국어로 작성된 응답은 원본 텍스트의 한국어 내용을 정확히 반영하지 않으며, 정보의 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있습니다. 원본 텍스트는 수시모집 결과에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 다른 정보(학과 분류, 모집 인원, 시험 과목 등)에 대해 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 수시모집 결과에 대한 정보가 없다는 핵심 내용을 간과하고 있습니다. 따라서 관련성은 있지만, 핵심 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어 원본 텍스트와의 일관성을 고려할 때, 언어의 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 원본 텍스트의 핵심 메시지를 명확히 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 못하고 있으며, 수시모집 결과에 대한 정보가 없다는 점을 명확히 하지 않고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성 모두 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 원본의 핵심 메시지를 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에는 한계가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.680278730834304</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到2023学年的警政学系（경찰행정학과）的单独招生结果。根据提供的内容，主要涉及了学科分类、招生人数、考试科目等信息，并没有包含具体的招生结果数据。
+如果您想了解2023年警政学系的具体招生结果，请访问以下网站以获取最新和详细的信息：https://ipsi. deu. ac. kr/main. do
+或者您可以直接联系学校招生办公室进行咨询。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않아도 지원할 수 있다고 주장하고 있지만, 원문에서는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명시하고 있지만, 생성된 응답은 특정 전형에서 수능 점수가 필요 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와 관련성이 떨어집니다. 원문에서의 핵심 질문에 대한 정확한 답변을 제공하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명을 포함하고 있지만, 원문과의 논리적 흐름이 부족합니다. 원문에서의 질문에 대한 직접적인 답변이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능에 응시하지 않으면 지원할 수 없다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5156569779206124</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2023년과 2024년의 경우, 정시모집에서 수능을 응시하지 않아도 지원이 가능합니다. 그러나 특정 전형에서는 수능 점수가 반영되므로, 지원하는 전형에 따라 수능 점수를 준비해야 할 수도 있습니다.
+예를 들어:
+- **학생부종합(성인학습자전형)**: 2024년부터는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 이 전형에서는 수능 점수가 반영되지 않으므로, 수능을 응시하지 않아도 지원이 가능합니다.
+- **학생부종합(조기취업형계약학과전형)**: 2024년부터는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 이 전형에서도 수능 점수가 반영되지 않으므로, 수능을 응시하지 않아도 지원이 가능합니다.
+따라서, 특정 전형에서는 수능 점수를 요구하지 않으며, 수능을 응시하지 않아도 지원이 가능합니다. 그러나 다른 전형에서는 수능 점수가 반영되므로, 지원하는 전형에 따라 수능 준비가 필요할 수도 있습니다. 자세한 내용은 공식 웹사이트에서 확인하시거나 "https://ipsi. deu. ac. kr/main. do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 지원 가능성에 대한 구체적인 정보를 제공하지 않고, 2024년도 입학 규정에 따라 다를 수 있다고 언급하고 있습니다. 그러나 원본 텍스트에서는 고등학교 졸업 시기와 관계없이 정시 지원이 가능하다고 명확히 언급하고 있어, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 정시 지원 가능성에 대한 명확한 답변을 제공하지 않아 일관성이 부족합니다. 원본 텍스트는 지원 가능성을 확실히 언급하고 있으나, 생성된 응답은 이를 회피하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 지원에 대한 절차를 설명하고 있지만, 원본 텍스트의 핵심 질문인 "정시 지원 가능 여부"에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 정시 지원 가능성에 대한 명확한 정보를 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이며, 특히 사실성과 일관성에서 부족함이 있습니다. 그러나 관련 정보와 유창성은 긍정적입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석될 수 있으며, 정시 지원 가능성에 대한 명확한 답변이 부족하여 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 절차를 명확히 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.4098478974519317</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정보를 기반으로 답변 드리겠습니다. 현재 제공된 정보로는 정시 모집과 관련된 구체적인 내용이 없습니다. 따라서, 정시 지원 가능 여부는 해당 대학의 2024년도 입학 규칙 및 전형 방법에 따라 결정됩니다.
+정시 모집에 지원하려면 다음과 같은 절차를 따르실 수 있습니다:
+1. **모집단위 확인**: 나군에서 정원외 모집단위와 모집인원을 확인하시기 바랍니다.
+2. **지원 자격 확인**: 농어촌학생전형의 지원 자격과 제출 서류 등을 다시 한 번 확인해 보세요.
+3. **최종 등록 시 추가 서류**: 필요하다면 최종 등록 시 추가로 제출해야 할 서류를 준비하세요.
+만약 정시 모집에 지원하려는 경우, 해당 대학의 2024년도 입학규정을 확인하시거나, "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 얻으실 수 있습니다.
+이러한 절차들을 통해 정시 지원 가능 여부를 판단하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8993023495581525</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 내용: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 내용: 서류 제출대상, 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 날짜: 레저스포츠학과와 태권도학과는 2024년 1월 16일 (화)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**:
+   - 날짜: 디자인조형학과와 체육학과는 2024년 1월 17일 (수)
+   - 내용: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+7. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+8. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 내용: 개별 전화 통보 시 안내
+   - 3차 이후 충원 합격자 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이 일정을 참고하여 원서접수와 서류제출 등을 진행하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8924126970557609</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 홈페이지: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 홈페이지: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 서류 제출 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과 (2024년 1월 16일 화)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과 (2024년 1월 17일 수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 금 14시
+   - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+7. **충원 합격자 발표 및 등록**:
+   - 1차: 2024년 2월 14일 수 9시 ~ 16시
+   - 2차: 2024년 2월 15일 목 9시 ~ 16시
+   - 3차 이후: 개별 전화 통보 시 안내
+이 일정은 동의대학교에서 정시 모집을 진행하는 과정에 대한 일반적인 예시이며, 실제 일정은 변경될 수 있으므로 공식 홈페이지를 확인하시기 바랍니다. 더 자세한 정보는 [입학안내 홈페이지](http://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 있는 전형에 대한 명확한 정보를 제공하지 않으며, 동의대학교의 정책에 대한 잘못된 해석을 포함하고 있습니다. 원문에서는 수능 미응시자는 지원이 불가능하다고 명시되어 있으나, 생성된 응답은 가능성이 있다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 그와 반대되는 가능성을 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 명시된 수능 미응시자의 지원 불가능성에 대한 정보를 간과하고 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 수능 미응시자에 대한 정보가 혼란스럽게 제시되고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.738864891526653</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 수능 미응시자도 지원 가능한 정시 모집 전형에 대한 명확한 정보가 없습니다. 그러나 일반적으로 일부 대학에서는 수능 미응시자를 위한 특별전형을 운영하며, 동의대학교에서도 그러한 전형이 존재할 가능성이 있습니다.
+만약 동의대학교에서 수능 미응시자도 지원 가능한 정시 모집 전형이 있다면, 해당 정보는 제공된 데이터 내에 포함되어 있지 않으므로 추가적인 확인이 필요합니다. 
+추가적으로 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신의 모집요강을 확인하시거나, 동의대학교 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 데이터가 없다고 언급하고 있지만, 원본 텍스트에서는 36명까지 이루어졌다고 명시되어 있습니다. 따라서 사실관계에서 일부 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있습니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 그에 대한 구체적인 데이터가 없다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 충원 합격 차수에 대한 구체적인 정보를 제공하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성 문제로 인해 완전한 점수를 주기에는 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 충원 합격 차수에 대한 구체적인 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적이며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 핵심 정보를 놓치고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.761258526640459</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 데이터가 없습니다. 전형요소 반영비율, 모집인원 등과 같은 정보만 포함되어 있습니다. 정확한 충원 합격 차수를 알고 싶다면, 해당 대학의 입학처 웹사이트나 공식 안내서를 참조하거나, 직접 문의하는 것이 가장 정확할 것입니다. 더 자세한 정보를 원하시면 "https://ipsi.deu.ac.kr/main.do" 링크를 참고해 주세요.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보에 대한 잘못된 해석을 포함하고 있습니다. 원본 텍스트에 명시된 전화번호가 존재함에도 불구하고 이를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호에 대한 질문에 대한 직접적인 답변이 아니며, 관련 정보가 부족합니다. 그러나 공식 웹사이트를 방문하라는 제안은 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 질문이 주어졌음에도 불구하고 중국어로 응답한 점은 유의해야 합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 전화번호에 대한 질문에 대한 답변이 아닌 다른 정보로 흐르고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전화번호가 명시되어 있음에도 불구하고 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문에 대한 적절한 답변이 아니기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5644201854393923</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。根据您提供的内容，似乎主要是关于招生计划、录取标准和其他相关信息的列表，并未包含联系方式如电话号码等具体细节。
+如果您需要查询东义大学入学处的具体联系电话，建议直接访问其官方网站或通过其他官方渠道获取最新和准确的信息。如果需要帮助，请告诉我更多信息，我会尽力提供支持。您也可以尝试访问“https://ipsi. deu. ac. kr/main. do”以获取更多详细信息。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격자로 인정된다고 주장하지만, 원본 텍스트에서는 전화 연락이 두절되면 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시하고 있습니다. 따라서 사실관계가 완전히 잘못되었습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본 텍스트는 전화 통화가 되지 않으면 합격자로 인정되지 않는다고 명시하고 있으나, 생성된 응답은 반대로 전화 통화가 되지 않아도 합격자로 인정된다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다. 원본 텍스트의 핵심 내용과는 다르게 해석되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 되어 있지만, 원본 텍스트와의 내용 불일치로 인해 논리적인 흐름이 약간 깨집니다. 원본 텍스트의 내용과 일치하지 않기 때문에 일관된 주제를 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 전화 통화가 되지 않으면 합격자로 인정되지 않는다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 완전히 왜곡하고 있습니다. 전화 통화가 되지 않으면 합격자로 인정되지 않는다는 원본의 의미와 상반된 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 내용의 정확성 문제로 인해 이해는 가능하나 신뢰할 수 없는 정보입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5376958879507092</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격자로 인정됩니다. 그러나 이 경우에는 홈페이지에서 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+따라서 전화 통화가 되지 않더라도, 합격자로 인정받을 수 있으며, 홈페이지와 입학관리팀을 통해 필요한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류에 대한 주요 내용을 잘 반영하고 있으나, '고교 졸업증명서'에 대한 언급은 원본 텍스트에 명시된 내용과는 다소 차이가 있습니다. 원본 텍스트에서는 졸업예정자에 대한 추가 서류 제출에 대한 구체적인 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, '고교 졸업증명서'와 관련된 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 세부 사항을 완전히 따르지 않기 때문에 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 필요한 서류 목록을 명확하게 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 '고교 졸업증명서' 부분에서 원본 텍스트와의 연결이 약해져 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '고교 졸업증명서'와 관련된 정보가 원본 텍스트와 다소 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 세부 사항에서 원본 텍스트와의 차이가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하고 있으나, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7465487198058529</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다르지만, 일반적으로 다음과 같은 서류가 필요합니다:
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+3. **고교 졸업증명서**:
+   - 6년 과정과 12년 과정 모두, 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 2024. 02. 16.(금)까지 추가 제출해야 합니다.
+위와 같은 서류들을 정확하게 준비하고 제출해야 합니다. 자세한 내용은 해당 대학의 공식 웹사이트나 입학처에 문의하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 추가된 발급 방법에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가된 발급 방법에 대한 설명이 약간의 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가된 정보로 인해 정확성이 약간 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있는 가능성이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8483461923968398</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+이러한 서류를 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 언급하지 않고, 선발 여부에 대한 정보가 없다고만 언급하고 있습니다. 이는 원문에서 제공하는 명확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 기회균등 전형이 존재하지 않는다는 중요한 사실을 누락하고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있으며, 정시 모집에 대한 추가 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 기회균등 전형에 대한 명확한 언급이 없어서 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공하는 사실을 정확히 반영하지 못하고 있으며, 기회균등 전형이 존재하지 않는다는 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받지만, 사실성과 정확성에서 부족함이 있어 중간 정도의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 전달하고 있으나, 기회균등 전형의 존재 여부에 대한 명확한 언급이 없어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 기회균등 전형에 대한 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6079071180525407</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 모집에서 저소득 기회균등 전형이 선발되는지에 대한 내용이 없습니다. 
+정시 모집과 관련된 자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다. 해당 사이트에서는 정시 모집의 전반적인 정보와 다양한 전형에 대한 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 2.5등급이 절사되지 않고 그대로 반영된다고 주장하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 이를 반박하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급의 평균산출에 대한 설명을 포함하고 있지만, 원문에서 요청한 절사 여부에 대한 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 평균산출에 대한 설명이 포함되어 있지만, 원문과의 연결이 부족하여 일관된 흐름이 부족합니다. 원문과의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 담고 있어 정확성이 매우 낮습니다. 원문에서 명시된 정보와는 정반대의 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 관계가 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 요청한 정보와는 다른 내용을 담고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6543761875350628</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되지 않고 그대로 반영됩니다. 수능 최저등급에서 사탐 2과목 평균산출이란 2개 과목의 등급을 평균하여 계산한다는 의미입니다. 따라서 2.5등급이 나온다면 그대로 2.5등급으로 평균산출이 이루어집니다.
+예를 들어, 사탐 2과목의 등급이 각각 2등급과 3등급이라면:
+(2 + 3) / 2 = 2.5
+따라서 2.5등급은 절사되지 않고 그대로 평균산출됩니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 총 4차로 이루어진다고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실관계에 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본에서는 3차 이후 발표가 개별 전화 통보로 진행된다고 했으나, 생성된 응답은 4차 발표를 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 발표 일정을 나열하고 있지만, 4차 발표에 대한 언급이 원본과의 연결성을 약화시킵니다. 전체적으로는 이해할 수 있으나, 논리적 흐름이 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 4차 발표에 대한 정보는 원본에 포함되어 있지 않으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실관계, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본의 의미와는 다소 다르게 해석될 수 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8154737958650589</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. 최초 합격자 발표 및 등록 (2024년 2월 7일 ~ 13일)
+2. 1차 충원 합격자 발표 및 등록 (2024년 2월 14일 오전 9시)
+3. 2차 충원 합격자 발표 및 등록 (2024년 2월 15일 오전 9시)
+4. 3차 이후 충원 합격자 발표 및 등록 (2024년 2월 15일 오후 7시 ~ 20일)
+이 중에서 3차 이후의 경우는 개별 전화 통보를 통해 안내가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 수능 최저 기준에 대한 정보가 없다고 언급하고 있으며, 이는 사실입니다. 그러나 원본 텍스트에서 제공된 평균 점수와 비교하여 4.6점이 충원 합격 가능성이 있다는 점을 명확히 하지 않았습니다. 따라서 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 수능 최저 기준에 대한 언급이 없기 때문에 일관성이 떨어집니다. 원본 텍스트는 4.6점이 평균을 초과한다고 명시하고 있으나, 생성된 응답은 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 수능 성적에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 평균 점수와 비교하는 내용이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 최저 기준에 대한 정보가 없다는 점에서 정확성이 떨어집니다. 원본 텍스트의 평균 점수와 비교하는 내용이 부족하여 정확한 판단을 내리기 어렵습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 잘 작성되었으나, 원본 텍스트의 정보와의 연결이 부족하여 다소 아쉬운 점이 있습니다. 그러나 문법과 표현은 우수합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 정보와의 연결이 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다. 독자가 쉽게 이해할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5492579424244661</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시전형에서 e비즈니스학과의 수능 최저 기준을 확인해보겠습니다.
+주어진 정보로는 e비즈니스학과의 정시 전형에 대한 수능 최저기준이 명시되어 있지 않습니다. 따라서, e비즈니스학과의 수능 성적이 4.6이라면 추가 합격 가능 여부를 판단하기 위해서는 해당 학과의 정시전형 수능 최저 기준을 확인해야 합니다.
+만약 e비즈니스학과의 정시 전형에 대한 수능 최저기준이 4.0 이상이라면, 4.6이라는 성적은 충분히 추가 합격 가능할 것입니다. 반대로, 만약 수능 최저 기준이 더 높다면, 4.6의 성적이 충족되지 않을 수도 있습니다.
+따라서, 정확한 판단을 위해서는 e비즈니스학과의 정시전형에 대한 수능 최저기준을 확인해야 합니다. 해당 정보를 제공해 주시면 더 구체적인 답변을 드릴 수 있을 것입니다. 만약 정보가 없으면, "https://ipsi. deu.ac.kr/main.do" 웹사이트에서 공식 정보를 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 관련된 정보를 잘못 전달하고 있습니다. 원본 텍스트에 따르면, 수능 4개 영역 등급 평균은 4.53인데, 생성된 응답에서는 5.21로 잘못 기재되어 있습니다. 이로 인해 합격 가능성에 대한 판단도 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 정시 등급 5.3이 합격하기 어려울 수 있다고 명시하고 있지만, 생성된 응답은 반대로 매우 높은 합격 가능성을 주장하고 있습니다. 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 정시 등급에 대한 합격 가능성에 대한 언급이 왜곡되어 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 부족합니다. 원본 텍스트의 주장을 반영하지 않고 새로운 정보를 추가하여 혼란을 초래하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 4개 영역 등급 평균을 잘못 기재하고 있으며, 이로 인해 합격 가능성에 대한 판단도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 신뢰할 수 없는 정보로 구성되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 왜곡으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6740025775108566</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과에 대한 정보를 확인해보겠습니다.
+e비즈니스학과는 정시모집군 다군에 해당하며, 전형요소 반영 비율은 학생부 교과 0%, 출결 0%, 서류 70%, 면접 30%입니다. 
+2024학년도 e비즈니스학과의 지원자들의 수능 4개 영역 등급 평균은 5.21, 표준 편차는 0.33입니다.
+수능 4개 영역 등급 평균이 5.21이고, 표준 편차가 0.33인 경우, 정시 등급 5.3은 상당히 높은 점수로 볼 수 있습니다. 
+따라서, 정시 등급 5.3의 지원자가 e비즈니스학과에 최초 합격 가능성은 매우 높다고 판단할 수 있습니다.
+만약 더 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트를 방문하여 확인해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 질문에 대해 전형 요소와 관련된 정보를 제공하고 있지만, 원본 텍스트에서 명시된 예비 38번의 합격 가능성이 낮다는 사실을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 답변을 제공하지 않고 있습니다. 전형 요소에 대한 정보는 유용하지만, 원본 텍스트의 주제와 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 전형 요소에 대한 정보를 제공하지만, 질문의 핵심인 예비 38번의 합격 가능성과 관련된 정보가 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형 요소에 대한 정보를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 각 전형 요소가 어떻게 예비 38번의 합격 가능성과 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 반영하지 않으며, 예비 38번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 전형 요소에 대한 정보를 제공하지만, 질문의 맥락과는 다소 동떨어져 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 질문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.529246200207096</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생의 경우, 전형요소 반영비율을 고려하여 답변 드리겠습니다. 
+1. **수능 위주 전형**: 수능 최저기준이 없으므로, 수능 점수가 중요합니다. 하지만, 이전에 언급된 내용에서 수능 위주의 전형에서는 학생부 교과 등이 반영되지 않음을 확인하였습니다.
+2. **실기/실적 위주 전형**: 실기나 실적을 요구하는 전형에서는 실력 점수가 중요합니다. 예를 들어, 가군 실기/실적(일반학생전형)에서는 수능 30%와 실기 70%가 반영됩니다.
+3. **학생부교과 위주 전형**: 학생부 교과 성적이 중요한 전형입니다. 예를 들어, 나군 학생부교과(농어촌학생전형)에서는 학생부 교과 성적 100%가 반영되며, 이는 농어촌 지역 거주 자격을 갖춘 학생에게 주어지는 특별한 전형입니다.
+4. **학생부종합 위주 전형**: 서류와 면접이 중요합니다. 예를 들어, 나군 학생부종합(평생학습자전형)에서는 서류 70%와 면접 30%가 반영됩니다.
+**결론**: e비즈니스학과에 지원하는 경우, 전형 유형에 따라 다르게 평가되므로, 정확한 답변을 듣기 위해서는 해당 학과의 전형요소 반영비율을 확인해야 합니다. 예를 들어, 만약 수능 위주 전형이라면 수능 점수가 중요하고, 만약 실기/실적 위주 전형이라면 실력 점수가 중요합니다.
+**추천**: 
+1. 해당 학과의 정확한 전형요소 반영비율을 확인하세요.
+2. 지원할 전형에 따라 필요한 서류를 준비하세요.
+3. 면접이나 실기 등이 요구되는 경우, 미리 준비하세요.
+더 자세한 정보가 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 동의대학교 간호학과의 수능 4개 영역 등급 평균을 3.12로 언급했으나, 원본 텍스트에서는 3.37로 명시되어 있습니다. 또한, 평균 수능 4개 영역 등급이 3.98라고 언급했지만, 원본 텍스트에는 그러한 정보가 없습니다. 이러한 부정확한 정보로 인해 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 평균 등급)를 포함하고 있으며, 이는 일관성을 저해합니다. 원본 텍스트의 정보와 상충하는 내용이 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 조언과 정보를 포함하고 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 없거나 부정확하여 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 수치와 정보는 원본 텍스트와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다. 특히 평균 등급에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 이로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으나, 부정확한 정보로 인해 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6218666550736566</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수는 동의대학교 간호학과의 수능 4개 영역 등급 평균인 3.12보다 약간 높습니다. 그러나 표준 편차가 0.21이므로, 이 점수만으로 합격 확률을 정확히 예측하기는 어렵습니다.
+동의대학교 간호학과의 경쟁률은 매우 높으며, 평균 수능 4개 영역 등급은 3.98입니다. 따라서 3.44이라는 점수로 합격 확률이 낮다고 볼 수 있습니다. 그러나 수능 점수 외에도 다른 요소들이 합격 여부에 영향을 미치므로, 정확한 예측은 불가능합니다.
+추천되는 조치는 다음과 같습니다:
+1. 추가적으로 준비를 하거나 강화하는 것이 필요할 수 있습니다.
+2. 동의대학교 간호학과의 입학사정관 제출 등 다른 요소들을 고려해 볼 수 있습니다.
+3. 다른 대학이나 전형을 함께 준비해 보는 것도 좋은 방법일 수 있습니다.
+더 자세한 정보나 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조해 보시거나 학교 관계자와 상담하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2.52라는 점수를 "매우 낮은 수준"이라고 언급하고 있으며, 동의대학교 간호학과의 경쟁률, 평균 점수, 표준 편차에 대한 구체적인 수치를 제공하고 있습니다. 그러나 원본 텍스트에서는 2.52가 평균 등급보다 높은 성적이라고 명시하고 있어, 생성된 응답은 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 2.52가 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 2.52가 낮은 점수라고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 합격 가능성에 대한 추가적인 정보도 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 다른 방향으로 나아가고 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 점수에 대한 평가와 다른 요소들에 대한 언급이 혼재되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있으며, 2.52라는 점수를 낮게 평가하고 있습니다. 이는 원본 텍스트의 정보와 정확히 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5403445091788047</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 매우 낮은 수준으로, 동의대학교 간호학과의 경쟁률이 6.59이며 평균 점수가 357.63이고 표준 편차가 5.37이라는 것을 고려할 때, 2.52라는 점수로는 최종 합격하기 어려울 것으로 보입니다.
+하지만 정시 성적이 낮더라도 다른 요소들(예: 특기사항, 실적 등)을 잘 준비하고 제출한다면 합격 가능성은 높아질 수 있습니다. 또한, 동의대학교 간호학과는 경쟁률이 높고 평균 점수가 상당히 높으므로, 최종 합격 가능성을 높이기 위해서는 매우 높은 성적을 보여줘야 합니다.
+만약 더 자세한 조언이 필요하다면, 해당 대학의 입학처에 문의하거나 전문가와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 3.7이 간호학과의 평균 등급보다 낮다고 언급하고 있지만, 실제로는 평균 등급이 3.37이므로 3.7은 평균보다 높은 성적입니다. 따라서 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 간호학과의 합격 가능성에 대한 불확실성을 언급하고 있지만, 평균 등급에 대한 정보가 잘못되어 있어 일관성이 떨어집니다. 그러나 다른 요소들(학생부 성적, 면접 등)에 대한 언급은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하며, 간호학과에 지원할 때 고려해야 할 요소들을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 평균 등급에 대한 잘못된 정보로 인해 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 일부 정보는 정확하지만, 정시 성적이 평균보다 낮다는 주장은 사실과 다릅니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답이 적절하지만, 사실성과 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있으며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6149921494953484</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만 간호학과는 일반적으로 중등 교육 기간 동안의 학업 성적이 중요한 요소로 작용합니다.
+2024년도 전형요소 반영비율을 보면, 대부분의 전형에서는 학생부교과성적이나 서류가 큰 비중을 차지하고 있습니다. 예를 들어, "학생부종합(조기취업형계약학과전형)"은 서류 60%와 면접 40%로 구성되어 있으며, 이는 학생의 학업 성적을 고려하는 것을 보여줍니다.
+따라서, 정시 성적이 3.7이라면, 간호학과에 지원할 때는 다음과 같은 점들을 주의해야 합니다:
+1. **학생부 교과성적**: 이 부분이 큰 비중을 차지하므로, 학생부 교과성적을 잘 준비하고 보완하는 것이 중요합니다.
+2. **면접 성적**: 면접에서도 자신의 열정과 간호에 대한 이해를 잘 전달해야 합니다.
+또한, 정시 성적이 3.7이라면, 일부 학교에서는 이 성적도 충분히 고려할 수 있으므로, 해당 학교의 최저 기준을 확인하고 지원하는 것이 좋습니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 대학 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(2.34)과 수능 4개 영역 등급 평균(3.37)과의 비교가 부족합니다. 또한, 2.58의 점수로 합격하기 어려울 것이라는 주장은 원본 텍스트의 긍정적인 합격 가능성과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 긍정적인 합격 가능성과 모순되는 내용을 포함하고 있습니다. 원본 텍스트는 2.58의 점수가 평균 등급보다 높다고 언급했지만, 생성된 응답은 합격하기 어려울 것이라고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급과의 비교가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 떨어지는 부분이 있어 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실과 상충하는 주장을 포함하고 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어졌습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 다소 어긋나는 주장을 포함하고 있어 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6572370268825728</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로 평균 점수와 경쟁률을 고려해보겠습니다.
+간호학과의 정시 모집에 대한 주요 정보는 다음과 같습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+평균 점수와 표준 편차를 보면, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63이고, 표준 편차는 5.37입니다.
+당신이 제시한 정시 성적인 2.58을 기준으로 평균 점수와 비교해보면, 현재 제공된 정보로는 간호학과의 평균 점수가 상대적으로 높기 때문에 2.58의 점수로 합격하기는 어려울 것으로 예상됩니다.
+하지만 정시 모집은 단순히 성적뿐만 아니라 면접, 서류 등 다양한 요소를 고려하므로, 개인적인 특성과 경쟁력을 잘 보여준다면 합격 가능성은 있을 수 있습니다. 
+따라서, 최종 합격 여부는 면접 및 서류 평가 등을 통해 결정되므로, 정시 모집에 지원하시고 면접 준비를 철저히 하시는 것이 좋겠습니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집 인원과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "예비 7번"의 합격 가능성이 낮다는 사실을 무시하고 있습니다. 또한, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보를 포함하고 있으며, 예비 7번의 합격 가능성에 대한 원본의 주장을 반박하는 내용을 담고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지만, 원본의 핵심 주제인 예비 7번의 합격 가능성에 대한 명확한 답변을 제공하지 않고 있습니다. 따라서 관련성은 있지만, 핵심 주제를 충분히 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 중간에 중국어가 포함되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다. 특히, 중국어 부분이 포함되어 있어 일관성을 해치고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 예비 7번의 합격 가능성에 대한 잘못된 해석을 제공합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 예비 7번의 합격 가능성에 대한 잘못된 해석이 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 중국어 부분이 포함되어 있어 한국어 사용자에게 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6123696849264832</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2024학년도에 게임공학과의 모집 인원은 3명이고, 지원 인원이 16명으로 경쟁률은 5.33입니다. 충원 합격자는 3명이며 예비번호 7번인 경우 붙을 확률이 있습니다만, 정확한 결과는 입학사정관실에서 발표될 때才知道到此刻你想要了解什么关于游戏学专业的信息？根据提供的数据，我们可以看到游戏学专业在2024年的招生人数为3人，而申请人数为16人，竞争比率为5.33。被录取的预备名额有3个。如果你是预录名单中的第7位，那么你被录取的可能性还是存在的，但具体能否录取还需等待学校最终公布的结果。
+如果您想了解更多信息或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.16이 동의대학교 게임공학과의 평균 등급보다 높다는 사실을 반영하고 있으며, 합격 가능성에 대한 여러 요소를 언급하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 등급 수치(영어 3.25, 수능 4개 영역 4.78)에 대한 언급이 없으므로 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 합격 가능성에 대한 여러 요소를 언급하고 있으며, 정시 전형에 대한 정보도 일치합니다. 그러나, 원문에서 언급된 추가 합격에 대한 예측이 명확히 반영되지 않아 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 질문과 관련된 모든 주요 포인트를 다루고 있으며, 합격 가능성에 대한 정보와 추가적인 조언을 제공합니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 일부 문장에서 정보의 흐름이 다소 느리게 느껴질 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 일치하며, 수능 점수와 관련된 합격 가능성에 대한 설명이 정확합니다. 그러나, 원문에서 제공된 구체적인 수치에 대한 언급이 없으므로 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 여러 차원에서 고르게 잘 수행하고 있습니다. 그러나 일부 세부 사항에서 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나, 원문에서의 특정 수치에 대한 언급이 부족하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나, 일부 문장에서 정보가 다소 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6166129114463699</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수를 가지고 동의대학교 게임공학과에 지원하는 것은 가능하지만, 실제 합격 가능성은 모집인원, 경쟁률, 지원 인원 등 여러 요소에 따라 달라질 수 있습니다.
+동의대학교 게임공학과는 정시 전형으로 운영되며, 2024년도 모집단위와 모집인원을 확인해야 합니다. 현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 게임공학과의 2024년 모집인원과 지원 인원, 경쟁률 등을 확인하여 합격 가능성 평가를 해야 합니다.
+추가적으로, 수능 점수 외에도 면접 성적, 서류평가 등이 포함되어 합격 여부를 결정하기 때문에, 전반적인 평가에서 좋은 결과를 얻을 수 있도록 준비하는 것이 중요합니다. 
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. https://ipsi. deu.ac.kr/main.do 에서도 추가적인 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시모집군 변경에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 구체적인 내용은 포함되어 있지 않습니다. 따라서 일부 사실은 반영되었으나, 중요한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 정시모집군 변경에 대한 언급이 원본 텍스트의 주제와 다소 상충합니다. 원본 텍스트는 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 그에 대한 확정적인 답변을 피하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시모집군과 관련된 정보를 제공하고 있으나, 질문의 핵심인 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보는 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 주제와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 모집군 변경에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치나 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 의미를 전달하고 있으나, 질문의 핵심에 대한 직접적인 답변이 부족하여 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5843373714530463</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 경우 정시모집군이 변경되었습니다. 현재 정보를 바탕으로 경영정보학과는 가군 또는 나군에 해당하는 모집단위에 속해 있습니다.
+가군이나 나군에서 성적 기준을 확인하기 위해서는 각 모집단위별로 정원 내/외 모집 인원과 수능 최저기준 등을 고려해야 합니다. 현재 제공된 정보만으로는 특정 모집단위의 정원 내/외 모집 인원이 명확하지 않아, 성적 3.75이면 최초 등록자로 가능할지 확정적으로 답변하기 어렵습니다.
+추가적인 정보를 얻기 위해서는 다음과 같은 웹사이트를 참조하시거나 입학관리팀에 문의하시는 것이 좋겠습니다:
+- https://ipsi. deu. ac. kr/main. do
+입학관리팀에서는 각 모집단위별 정원 내/외 모집 인원, 수능 최저기준 등 자세한 정보를 제공해 주실 것입니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 판단을 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교하여 합격 가능성이 낮다는 명확한 정보를 제공하지 않고 있습니다. 또한, 국어국문학과의 최고점에 대한 언급은 원본 텍스트와 관련이 없으므로 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경영정보학과의 합격 가능성에 대한 결론이 원본 텍스트의 결론과 상충합니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 판단하기 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하려고 하지만, 국어국문학과의 최고점에 대한 언급은 주제와 직접적으로 관련이 없습니다. 그러나 전반적으로 경영정보학과에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 불명확하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 국어국문학과의 정보가 갑자기 등장하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 경영정보학과의 합격 가능성에 대한 판단이 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 국어국문학과의 정보는 주제와 관련이 없어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.7187361043983644</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격을 위해서는 수능 점수, 국어국문학과나 다른 관련 학과의 최초합격자 평균 점수 등을 고려해야 합니다.
+현재 제공된 정보는:
+- 2024학년도 인문사회과학대학 국어국문학과의 최고점이 3.88입니다.
+- 평균 점수가 3.00 이상으로 보입니다.
+따라서, 경영정보학과의 정시 합격을 위해서는 수능 점수와 국어 등급이 상대적으로 높아야 합니다. 현재 제공된 정보로는 판단하기 어렵습니다. 더 자세한 정보를 확인하거나, 해당 대학의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 정시 모집요강을 확인해 보시는 것이 좋겠습니다.
+또한, 경영정보학과의 경우 특정 전공적합성이나 학업역량이 요구될 수 있으므로, 지원 자격 요건을 충족하는지 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 경영정보학과의 합격 가능성을 판단하기 위해 필요한 추가 정보를 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 제시된 평균 등급에 대한 명확한 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 추가적인 정보를 제공하고 있으며, 전반적으로 일관성을 유지하고 있습니다. 그러나 일부 정보는 원본 텍스트에서 직접적으로 언급되지 않았기 때문에 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 정보가 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 다소 모호할 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.613447799891046</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 합격할 확률을 정확히 판단하기 어렵습니다. 동의대학교 경영정보학과의 모집요강, 지원 자격 조건, 평균 합격 점수 등을 확인해야 합니다.
+특히 다음과 같은 정보가 필요합니다:
+1. 동의대학교 경영정보학과 일반학생전형의 모집인원 및 지원 인원
+2. 해당 전형의 평균 합격 점수와 경쟁률
+3. 수능 4개 영역 등급 또는 표준 변환 점수 합 등의 평균 및 분포
+만약 동의대학교의 경우 특정 전형에서 평균 합격 점수가 5.33보다 높다면, 합격 가능성은 낮을 수 있습니다. 반대로 평균 합격 점수가 5.33 이하라면, 합격 가능성은 더 높아질 것입니다.
+따라서, 동의대학교 경영정보학과 일반학생전형에 대한 모집요강 및 지원 자격 조건을 확인하시고, 해당 정보를 바탕으로 판단해보시는 것이 좋습니다. 필요하다면, 동의대학교의 입학처 웹사이트나 전화로 문의하시는 것도 좋은 방법입니다.
+더 자세한 정보를 원하신다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조하시거나, 동의대학교 입학처에 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 전형과 관련된 정보를 제공하고 있으며, 성적 3.33에 대한 평가도 포함되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초등록자에 대한 조건을 명확히 언급하지 않아 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 바이오응용공학부에 지원하는 방법에 대한 구체적인 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확한 정보를 제공하고 있으나, 최초등록자에 대한 조건이 명확히 언급되지 않아 일부 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 최초등록자에 대한 언급이 부족하여 의미 전달이 완전하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7160231790316929</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 지원하려면, 학생부 교과성적을 반영하는 전형이 주요합니다. 현재 제공된 정보를 바탕으로, 바이오응용공학부는 "학생부종합(조기취업형계약학과전형)"이라는 전형이 있습니다.
+"학생부종합(조기취업형계약학과전형)"의 경우, 2024년도에는 학생부 교과성적과 면접 성적이 반영됩니다. 구체적으로는 서류(학생부)가 60%와 면접이 40%를 차지합니다.
+현재의 성적인 3.33은 학생부 교과성적에서 좋은 점수로 평가될 수 있습니다. 그러나 바이오응용공학부는 "최초등록자"라는 조건을 제시하지 않았습니다. 따라서, 성적이 3.33 정도라면, 합격 가능성은 있으나 확실한 것은 아닙니다.
+결론적으로, 성적 3.33 정도로 바이오응용공학부에 지원하는 것은 가능합니다만, 최종 합격 여부는 전형 요소 반영 비율과 면접 성적 등 다양한 요인에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 정시 등급 4.4에 대한 합격 가능성을 언급하고 있습니다. 그러나 일부 세부사항(예: 경쟁률 수치)이 정확하지 않을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 방사선학과의 경쟁률과 지원 가능성에 대한 내용을 잘 반영하고 있습니다. 다만, 일부 추가 정보가 원본과 다소 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 방사선학과에 지원하기 위한 조건과 관련된 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 일부 수치나 세부사항이 정확하지 않을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서 정확성이 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 문장에서 의미가 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.5854479802267348</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하려면, 정시 등급 4.4 정도로는 경쟁률이 높은 모집단위에서 충원 합격하기 어려울 것으로 예상됩니다. 방사선학과는 일반적으로 고등학교 졸업 후 곧 진학하는 대학생들에게 인기가 많고, 지원자가 많아 경쟁률이 높습니다.
+2024년 방사선학과의 모집인원과 지원자 수를 확인해보겠습니다:
+- 2024학년도 모집인원: 13명
+- 2024학년도 지원 인원: 56명
+- 경쟁률: 4.35
+이와 같이, 방사선학과의 경쟁률은 매우 높습니다. 정시 등급 4.4로는 충원 합격하기 어려울 것으로 보입니다.
+그럼에도 불구하고, 다음과 같은 방법을 통해 지원 가능성을 높일 수 있습니다:
+1. **학생부 성적 및 활동 강조**: 학생부에서 우수한 성적과 다양한 활동을 기록해 두세요.
+2. **면접 준비**: 면접에서도 방사선학과에 대한 열정과 적합성을 잘 보여주세요.
+3. **추천서 활용**: 선생님이나 지도老师的，您能否用韩语回答以下问题：我目前的等级是4.4左右，正在考虑普通生源类型，请问我能申请放射学专业吗？2024年东义大学放射学专业的招生人数和报考人数是多少？根据这些信息，我的成绩能被录取吗？
+老师的，您能否用韩语回答以下问题：我目前的等级是4.4左右，正在考虑普通生源类型，请问我能申请放射学专业吗？2024年东义大学放射学专业的招生人数和报考人数是多少？根据这些信息，我的成绩能被录取吗？
+는 다음과 같이 답변할 수 있습니다:
+현재 등급 4.4로는 방사선학과에 지원하기 어려울 것으로 예상됩니다. 방사선학과의 경쟁률이 매우 높기 때문입니다.
+2024년 동의대학교 방사선학과의 모집인원과 지원자 수를 확인해보겠습니다:
+- 2024학년도 모집인원: 13명
+- 2024학년도 지원 인원: 56명
+- 경쟁률: 약 4.35
+이와 같이, 방사선학과의 경쟁률은 매우 높습니다. 현재 등급 4.4로는 충원 합격하기 어려울 것으로 보입니다.
+그럼에도 불구하고, 다음과 같은 방법을 통해 지원 가능성을 높일 수 있습니다:
+1. **학생부 성적 및 활동 강조**: 학생부에서 우수한 성적과 다양한 활동을 기록해 두세요.
+2. **면접 준비**: 면접에서도 방사선학과에 대한 열정과 적합성을 잘 보여주세요.
+3. **추천서 활용**: 선생님이나 지도교사의 추천서를 활용하여 지원 가능성을 높일 수 있습니다.
+따라서, 현재 등급 4.4로는 방사선학과에 지원하기 어려울 것으로 예상되지만, 학생부 성적 및 활동을 잘 준비한다면 지원 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 정시 모집에 대한 수능 최저 기준 점수를 확인할 수 없다고 언급하고 있지만, 원본 텍스트에서는 2.66이라는 점수가 평균보다 높음을 의미한다고 명시하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 방사선학과의 정시 모집에 대한 위험성을 판단하기 어렵다고 언급함으로써 원본의 긍정적인 해석과 상충하는 부분이 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 정시 모집과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 핵심 메시지를 완전히 반영하지 못해 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본의 핵심 메시지와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 2.66이라는 점수의 의미를 잘못 해석하고 있습니다. 원본에서는 이 점수가 평균보다 높음을 강조하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본의 핵심 메시지를 충분히 반영하지 못하고 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 방사선학과의 정시 모집에 대한 위험성을 판단하기 어렵다는 주장은 원본의 긍정적인 해석과 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6561162123228708</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 방사선학과 정시 모집에 대한 수능 최저 기준 점수를 확인할 수 없습니다. 방사선학과의 정시 모집에 대한 수능 최저기준 점수는 해당 대학 홈페이지나 입학처에서 확인해야 합니다.
+추가적으로, 2.66이라는 점수는 GPA(평균 학점)로 보이는데, 이 점수만으로는 방사선학과 정시 모집에 대한 위험성을 판단하기 어렵습니다. 수능 점수와 학교생활기록부 등 다른 평가 요소들이 함께 고려되기 때문입니다.
+더 자세한 정보를 얻으려면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 대학 홈페이지를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 3.66의 GPA가 평균보다 높은 성적이라는 점을 정확하게 반영하고 있습니다. 그러나 농어촌 전형에 대한 구체적인 기준이나 세부 사항이 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 농어촌 전형에 대한 추가적인 정보와 조건을 제시하면서 원본의 내용과 다소 상충하는 부분이 있습니다. 특히, 전형의 특성에 대한 설명이 원본의 내용과 일관되지 않을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 대한 적절한 정보를 제공합니다. 원본의 주요 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 흐름이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, GPA와 관련된 정보도 정확합니다. 그러나 농어촌 전형에 대한 구체적인 기준이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본의 맥락과 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.4796001942167579</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 GPA로 경찰행정학과의 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **점수 기준**: 각 대학별로 정해진 학업성적 기준이 있으므로, 3.66의 GPA가 해당 기준을 충족하는지 확인해야 합니다.
+2. **전형 특성**: 농어촌 전형은 학생부교과 성적이 중요한 요소 중 하나로 작용합니다. 따라서 학업성적 외에도 다른 평가 항목들이 중요하게 작용할 수 있습니다.
+3. **기타 평가 항목**: 서류평가, 면접 등 다양한 평가 항목이 있으므로, GPA 외에도 지원서 작성의 품질, 면접 성적 등을 고려해야 합니다.
+4. **전형별 차이**: 각 전형(평생학습자전형, 성인학습자전형, 재직자전형 등)에 따라 평가 기준과 방법이 다를 수 있으므로, 해당 전형의 특성을 잘 이해하고 지원해야 합니다.
+따라서, 정확한 합격 가능성 판단을 위해서는:
+- **대입원 웹사이트 확인**: 대학 홈페이지나 입시 관련 웹사이트에서 해당 전형의 평가 기준과 방법을 자세히 확인하세요.
+- **문제해결능력 및 진로 탐색 능력**: 면접이나 서류평가에서 문제 해결 능력, 진로 탐색 능력을 잘 보여주는 것이 중요합니다.
+- **교사의 평가**: 학생부 교과 성적 외에도 교사의 평가와 의견이 반영될 수 있으므로, 이를 고려해야 합니다.
+추천 드리는 것은, 대입원 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하여 자세한 정보를 확인하시고, 지원 전형의 특성을 잘 이해하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번이 낮은 등급이라는 점을 언급하고 있지만, 원문에서 제공된 특정 학과 목록에 대한 언급이 없고, 합격 확률에 대한 구체적인 정보가 부족합니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 예비 25번의 등급이 낮다는 주장을 하면서도 원문에서 제시한 특정 학과에 대한 정보는 포함하지 않고 있습니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 25번에 대한 합격 확률을 논의하고 있으며, 원문과 관련된 주제를 다루고 있습니다. 그러나 원문에서 제시한 특정 학과 목록에 대한 언급이 없으므로 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약간 부족하여 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 25번의 등급이 낮다는 점을 언급하지만, 원문에서 제공된 구체적인 학과 목록에 대한 정보가 누락되어 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원문과의 연결이 부족하여 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 주제에 적합한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 다소 복잡할 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5193545567020985</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 등급은 상당히 낮은 등급입니다. 학생부교과, 출결, 서류, 면접, 실기, 수능 중 어느 요소라도 높은 점수를 받지 못한 경우 해당 등급을 받게 됩니다.
+현재 제공된 정보만으로는 정확히 붙을 확률을 예측하기 어렵습니다. 그러나 25번의 등급은 매우 낮은 등급이므로, 일반적으로 높은 합격 확률을 기대하기는 어려울 것입니다.
+다음과 같은 요소들을 고려해보시면 도움이 될 수 있습니다:
+1. **개인 성적**: 현재까지 받은 점수와 평균 등급.
+2. **서류 및 면접 준비**: 서류 작성과 면접 준비의 상태.
+3. **실기/실적**: 실기나 경기실적 우수자 전형에 대한 준비 상황.
+더 자세한 정보를 얻으시려면, 해당 대학의 입학처 웹사이트나 연락처를 통해 확인해보시는 것이 좋습니다. 또한, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 많은 정보를 얻어보세요.
+이런 상황에서 긍정적인 마음가짐을 유지하는 것도 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교의 법경찰행정학부에 대한 정보가 잘못되어 있으며, 실제로는 해당 학부가 존재하지 않는다는 사실을 무시하고 있습니다. 또한, 제시된 성적 기준도 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 서로 다른 정보를 제공하고 있습니다. 원본 텍스트는 경찰행정학과에 대한 성적 기준을 제시하고 있지만, 생성된 응답은 다른 과목과 성적 기준을 언급하고 있습니다.
+3. Relevance Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 핵심 내용과는 전혀 상관없는 정보입니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 동의대학교의 법경찰행정학부에 대한 언급은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.5333229200036744</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>东国大学法警行政学部的录取标准会根据每年的具体情况有所不同，但可以参考一些常见的要求。通常情况下，如果想确保被录取（安全线），你需要达到以下水平：
+1. **国语 (韩语)、数学、英语等主要科目**：这些科目的成绩需要达到B+或以上。
+2. **韩国史和社会学**：这些科目也需要达到B+或以上。
+具体来说，如果你希望在安全线上被录取，建议你的总平均分至少要达到80%左右。如果想确保被录取（关门线），则需要更高的分数，大约90%以上。
+请注意，这只是参考标准，实际录取分数线会根据当年申请者的整体水平而变化。因此，最好查看东国大学官方网站上的最新信息或咨询招生办公室以获取最准确的数据。
+如果你有其他具体问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 수능 4개 영역 등급이 5.21이라는 정보를 제공하지만, 이는 원본 텍스트에 명시된 아동학과의 평균 등급(6.33)과는 관련이 없습니다. 따라서, 일부 사실이 정확하지 않거나 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 아동학과와의 관련성을 명확히 하지 않아 일관성이 떨어집니다. 두 학과의 정보가 혼합되어 있어 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 합격 가능성을 다루고 있어 원본 텍스트와 관련이 있지만, 아동학과의 정보와 혼합되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 아동학과와 보육가정상담학과의 정보를 혼합하여 논리적 흐름이 약간 부족합니다. 두 학과의 정보가 명확히 구분되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 수능 등급에 대한 정보를 제공하지만, 원본 텍스트의 아동학과와의 관련성을 명확히 하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 아동학과와의 혼합으로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 두 학과의 정보가 혼합되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5804409304784776</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 입학사정관 전형에서 정시 산출 등급이 5.33인 경우, 충분히 합격 가능성은 있습니다.
+보육가정상담학과의 지원자들의 평균 수능 4개 영역 등급이 5.21이며, 표준 편차는 0.33입니다. 이는 지원자의 수능 점수가 평균치에 가까운 범위 내에서 분포하고 있다는 것을 의미합니다.
+평균치가 5.21이고 표준 편차가 0.33인 경우, 5.33은 상당히 높은 점수로, 대부분의 지원자들보다 높은 수능 점수를 받았을 가능성이 큽니다.
+따라서, 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격할 확률이 상당히 높습니다. 하지만 최종 합격 여부는 지원자의 총점뿐만 아니라 다른 요소들(예: 교과 성적, 특기사항 등)도 고려되기 때문에, 정확한 판단을 위해서는 동의대학교 입학사정관 전형의 기준을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 언급이 있지만, 원본 텍스트에서는 수능 성적에 대한 정보가 제공되지 않았습니다. 따라서 이 부분은 사실과 일치하지 않으며, 원본 텍스트의 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 수능 성적에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 충원 합격 가능성에 대한 정보에 집중하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 수능 성적에 대한 언급이 원본 텍스트와는 관련이 없으므로 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요점이 명확하게 제시되어 있습니다. 그러나 수능 성적에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 정보가 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 정보와는 다소 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 원본 텍스트와의 일치성이 떨어지며, 사실성, 일관성, 정확성에서 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 어긋나는 부분이 있으며, 수능 성적에 대한 언급이 원본의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 원본 텍스트와의 연결이 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.5478080448183017</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>700 점의 수능 성적을 가지고 있는 경우, 충원 합격 3차에서 예비 12번으로 받은 것은 좋은 결과입니다. 그러나 합격 여부는 여러 요인에 따라 결정되므로 확실한 답변을 드리기 어렵습니다.
+다만, 다음과 같은 점들을 고려해보시면 도움이 될 것입니다:
+1. **수능 성적**: 700점은 좋은 성적이지만, 충원 합격 3차에서는 경쟁률이 높아서 여전히 위험한 상황입니다.
+2. **모집인원 및 지원자 수**: 각 모집단위의 정원과 예비 지원자의 수를 확인해보세요. 이 정보는 입학관리팀에서 제공할 수 있습니다.
+3. **실기/실적 평가 결과**: 실기나 실적 평가에서도 좋은 성적을 받았다면, 합격 가능성은 높아집니다.
+4. **전형별 세부 안내**: 각 전형의 세부 안내를 확인해보세요. 동의대학교의 입학 홈페이지에서 해당 정보를 찾아볼 수 있습니다.
+5. **합격자 발표 일정**: 합격자 발표 일정을 지켜보시고, 결과가 나올 때까지 기다려보는 것이 좋습니다.
+이러한 요인들을 종합적으로 고려하면 합격 가능성에 대한 판단을 내릴 수 있을 것입니다. 추가적인 정보나 자세한 안내를 원하시면 동의대학교 입학 홈페이지를 참조하거나, 입학관리팀과 연락해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원할 수 있는 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 4.18의 평균 등급을 고려할 때, 4.75로 지원하기 어려울 것이라는 점을 간과하고 있습니다. 따라서 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트의 결론과는 일치하지 않습니다. 원본 텍스트는 4.75로 지원하기 어렵다고 명시하고 있으나, 생성된 응답은 가능성을 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대해 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 주요 포인트인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 경쟁률과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 사실을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 적절한 의미를 전달하고 있으며, 전반적으로 맥락에 맞는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 내용을 담고 있으나, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7541848686045536</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급을 가지고 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높고 모집 인원이 적기 때문에 어려울 가능성은 있습니다.
+유아교육학과의 경우, 2024년도 지원자와 모집 인원을 살펴보면:
+- 모집 인원: 4명
+- 지원 인원: 13명 (경쟁률 3.25)
+이처럼 경쟁률이 높기 때문에 4.75라는 등급으로 충분히 합격할 수 있는 보장은 없습니다.
+하지만, 수능 등급 외에도 학생부 교과성적, 출결, 서류평가 등의 요소가 반영되기 때문에, 전체적인 평가에서 좋은 점수를 받는다면 합격 가능성은 있습니다. 특히, 유아교육학과에서는 인성과 전공 적합성을 중점적으로 평가하기 때문에, 이러한 부분에서도 우수한 성적을 보여줄 수 있다면 도움이 될 것입니다.
+따라서, 4.75라는 등급으로 지원하는 것은 가능하지만, 경쟁률이 높기 때문에 유의미한 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 최저 기준에 대한 정보가 부족하다고 언급하고 있으며, 이는 원본 텍스트에서 제공된 정보와 일치하지 않습니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 불확실성을 강조하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 수능 최저 기준에 대한 불확실성을 강조함으로써 일관성이 떨어집니다. 원본 텍스트는 합격 가능성을 높게 평가하고 있으나, 생성된 응답은 이를 반박하는 듯한 인상을 줍니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 수능 최저 기준에 대한 정보가 부족하다는 점에서 약간의 관련성이 떨어집니다. 그러나 여전히 주제와 관련된 질문을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 수능 최저 기준에 대한 불확실성을 언급함으로써 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실과 다소 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 이를 부정하는 듯한 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 수능 최저 기준에 대한 불확실성을 강조함으로써 의미 전달이 약간 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.701736605169037</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과(아동학과)의 수능 최저 기준을 확인해보겠습니다. 현재 제공된 정보에서는 해당 학과의 수능 최저기준이 명시되어 있지 않습니다.
+수능 최저기준이 없거나, 4.16 이상의 등급이 요구된다면, 가능성이 있습니다. 하지만 정확한 판단을 위해서는 수능 최저 기준을 확인해야 합니다. 만약 수능 최저 기준이 4.20 이상이라면, 현재의 환산등급으로는 충분하지 않을 것입니다.
+수능 최저기준에 대한 정보를 제공해주시거나, 해당 정보를 확인할 수 있는 링크를 제공해주신다면, 더 정확한 답변을 드릴 수 있을 것 같습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문 내용을 완전히 무시하고, 정시 지원에 대한 정보를 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문에서는 정시 지원이 불가능하다고 명시했으나, 생성된 응답은 정시 지원을 위한 조건과 경쟁률에 대한 정보를 제공합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 없습니다. 원문은 정시 지원 가능성에 대한 질문이었으나, 생성된 응답은 정시 지원에 대한 구체적인 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공한 사실과 완전히 다릅니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 정시 지원에 대한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문에서 정시 지원이 불가능하다고 명시했음에도 불구하고, 정시 지원에 대한 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계가 없기 때문에 질문에 대한 답변으로서의 이해는 어렵습니다. 내용이 부적절하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4891954007458063</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어융합학과의 지원을 고려할 때, 다음과 같은 정보를 바탕으로 답변을 드릴 수 있습니다.
+- **모집인원**: 30명
+- **지원인원**: 146명
+- **경쟁률**: 4.87
+이 학과의 경쟁률은 상당히 높습니다 (4.87:1). 이에 따라 지원을 위해서는 평균적으로 높은 수능 등급을 받아야 합니다.
+**수능 4개 영역(가산점 포함) 표준 변환 점수 합의 평균**: 453.83
+따라서, 소프트웨어융합학과를 정시로 지원하려면 수능 4개 영역 등급의 평균을 4.07 이상 받아야 합니다 (이 값은 주어진 정보에서 '수능 4개 영역 등급' 항목의 평균값으로 추정됨). 그러나 이는 단순히 평균치를 넘기면 되는 것이 아니라, 경쟁률과 지원 인원을 고려하여 더 높은 점수를 받는 것이 유리할 수 있습니다.
+따라서, 소프트웨어융합학과 정시로 들어가기 위해서는 **4.07 이상의 수능 등급**을 받아야 합니다. 그러나 이보다 높은 등급을 받아 경쟁력을 높이는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 내용을 포함하고 있습니다. 또한, 서류 준비에 대한 정보가 잘못 전달되고 있으며, 원본 텍스트에서 언급된 서류 평가와 면접 고사에 대한 구체적인 내용이 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 소프트웨어융합학과에 대한 평가 기준을 설명하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 정보로 바뀌어 있으며, 평가 기준이 다르게 제시되고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보로 바뀌어 있어 관련성이 떨어집니다. 그러나 면접 준비에 대한 조언은 여전히 유용할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 면접 준비에 대한 조언이 포함되어 있지만, 원본 텍스트의 내용과의 연관성이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접 준비에 대한 조언을 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6117805921745214</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부(컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학)의 면접 점수보다 세특 내용을 더 많이 보시는 편입니다. 이 부분은 지원자의 실질적인 능력과 경험을 평가하기 위해 중요하게 여겨집니다.
+따로 준비해야 하는 서류는 없습니다. 하지만 면접에서 요구되는 세부 사항들을 잘 이해하고 있어야 합니다. 주요 세부사항들은 다음과 같습니다:
+1. **창의적 체험활동**: 동아리 활동, 프로젝트 참여 등 창의적인 경험을 강조하세요.
+2. **진로 탐색 활동**: 지원 전공과 관련된 진로 탐색 활동을 설명하세요. 이는 지원자의 전공 적합성을 증명하는 데 도움이 됩니다.
+3. **학업역량**: 고교(직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력 등을 이야기해 보세요.
+면접에서는 이러한 내용들을 자연스럽게 논의할 수 있도록 준비하시면 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.08의 점수가 4.12보다 약간 낮다고 언급하고 있지만, 원문에서는 4.08이 평균보다 약간 높은 수준이라고 명시되어 있습니다. 이로 인해 사실관계에서 일부 오류가 발생했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 4.08이 평균보다 낮다고 언급함으로써 일관성이 떨어집니다. 원문에서는 4.08이 평균보다 약간 높은 수준이라고 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 원문과 상충하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 4.08이 평균보다 낮다고 잘못 언급하여 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 일부 잘못된 정보로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7712895845366942</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수는 동의대학교 소프트웨어공학부의 최초합격자들의 수능 4개 영역 등급 평균인 4.12보다 약간 낮습니다. 그러나 표준 편차가 0.32이므로, 이 점수는 평균에서 약간 떨어져 있지만 여전히 합격 가능성은 있습니다.
+소프트웨어공학부의 최초합격자들의 수능 4개 영역 등급 평균은 4.12이고, 표준 편차가 0.32입니다. 이는 점수 분포가 비교적 좁다는 것을 의미합니다.
+따라서, 4.08이라는 점수로 최초합격을 받기는 어렵지만, 매우 높은 수능 점수를 얻지 못한 학생들이 합격하는 경우도 있습니다. 이는 개인의 전체 성적과 경쟁률 등 다양한 요인에 따라 결정됩니다.
+결론적으로, 4.08이라는 점수로 동의대학교 소프트웨어공학부 최초합격을 받기는 어렵지만, 가능성은 존재합니다. 정확한 확률을 알기 위해서는 전체 지원자의 성적 분포와 경쟁률 등을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 전환되어 있습니다. 이는 원본 텍스트와의 일관성을 잃게 만듭니다. 또한, 평균 영어 등급과 관련된 정보는 원본 텍스트에 포함되어 있지 않으므로 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공하고 있습니다. 이는 원본 텍스트와의 일관성이 부족하며, 서로 다른 학과에 대한 정보를 혼동하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 소프트웨어융합학과의 정시 모집에 대한 정보에 초점을 맞추고 있지만, 생성된 응답은 소프트웨어공학부에 대한 정보로 전환되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 주제와 관련된 내용이 아니기 때문에 흐름이 자연스럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 다른 학과에 대한 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 주제와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6028560652325879</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 지원 자격 및 평균 등급을 고려해보겠습니다.
+- **평균 영어 등급**: 3.30 (표준 편차: 0.82)
+- **모집 인원**: 30명
+- **지원 인원**: 146명
+- **경쟁률**: 4.87
+이러한 정보를 바탕으로 평균 등급인 5등급을 가진 지원자가 소프트웨어공학부에 합격할 수 있는지 판단해보겠습니다.
+**평균 등급과 지원 자격:**
+- 영어 등급의 평균은 3.30이며, 표준 편차가 0.82입니다.
+- 이는 5등급을 가진 지원자가 상대적으로 높은 점수를 받았음을 의미합니다.
+**경쟁률:**
+- 경쟁률이 4.87이라는 것은 매우 치열한 경쟁을 보여줍니다.
+- 평균 등급이 3.30인 경우, 지원자가 5등급을 가진 것으로는 충분히 경쟁력을 갖추지 못할 가능성이 높습니다.
+따라서, **평균 영어 등급 5등급으로 소프트웨어공학부에 합격하기 어렵다고 판단됩니다.** 
+만약 다른 전형이나 단과대학을 고려해보시는 것이 좋을 것 같습니다. 자세한 정보를 확인하시거나, 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 합격 가능성에 대해 여러 요인을 고려해야 한다고 언급하고 있지만, 제공된 데이터에서 평균 점수와 표준 편차에 대한 정보는 잘못된 수치입니다. 평균 점수는 5.32와 5.78로 주어졌으나, 응답에서는 439.60과 5.24로 잘못 기재되어 있습니다. 이로 인해 사실성과 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있으나, 평균 점수와 표준 편차에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 또한, 경쟁률에 대한 언급이 있지만, 원본 텍스트에서는 경쟁률에 대한 정보가 제공되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격 가능성에 대한 여러 요인을 고려하고 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없거나 추가적인 정보로 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제공된 평균 점수와 표준 편차는 원본 텍스트와 일치하지 않으며, 이는 정확성에 부정적인 영향을 미칩니다. 그러나 합격 가능성에 대한 일반적인 판단은 적절합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답이 적절하게 구성되어 있으나, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 잘못된 정보가 포함되어 있어 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6010062241244721</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학부에 합격할 수 있는지는 여러 요인을 고려해야 합니다.
+1. **전형 유형**: 동의대학교 신소재공학부는 일반적으로 수능 기반 전형이 주를 이루므로, 수능 점수와 경쟁률 등을 고려해야 합니다.
+2. **경쟁률**: 제공된 데이터에서 특정 단과대학과 모집단위별 경쟁률을 확인할 수 있습니다. 예를 들어, 인문사회과학대학의 경찰행정학과는 4.14의 경쟁률이 있었고, 이보다 낮은 점수인 경우 충원에 합격하는 것이 가능했습니다.
+3. **평균 및 표준 편차**: 제공된 데이터에서 평균 점수가 439.60이고 표준 편차가 5.24이므로, 4.28은 약간 낮은 수치입니다.
+따라서, 4.28의 점수로 동의대학교 신소재공학부에 합격할 가능성은 있습니다만, 확실한 것은 아닙니다. 경쟁률과 해당 모집단위의 평균 점수를 고려하여 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 제공된 데이터와 함께 다른 단과대학이나 모집단위의 경쟁률을 비교해 보시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 점을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 명확한 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6857743042288782</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 다군 수능(일반학생전형)에서는 자기소개서를 제출하지 않습니다. 이 전형은 주로 수능 점수와 학교생활기록부 등을 기준으로 평가합니다. 따라서 자기소개서는 필요하지 않습니다.
+만약 추가적인 서류가 필요한 경우에는 해당 대학의 입학처 웹사이트나 공지사항을 확인해보시거나, 직접 연락하여 자세한 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수 4.5에 대한 합격 가능성을 여러 요인에 따라 설명하고 있으며, 각 단과대학의 평균 점수와 표준 편차를 언급하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 등급과 표준 편차에 대한 정보가 누락되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 내용과 일관되게 추가 모집에 대한 합격 가능성을 다루고 있습니다. 그러나, 일부 세부 사항에서 원문과의 일관성이 떨어지는 부분이 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 합격 가능성을 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요점이 잘 연결되어 있습니다. 그러나 몇몇 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보에 대해 정확하게 설명하고 있으나, 원문에서 제공된 구체적인 수치와 비교할 때 일부 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 담고 있습니다. 그러나 약간의 세부 사항에서 의미의 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 더 명확한 표현이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7489317553203968</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 점수가 주어졌을 때, 추가 모집에 합격할 확률은 여러 요인에 따라 달라질 수 있습니다. 예를 들어, 지원하는 단과대학과 모집단위의 경쟁률, 평균 점수 등이 중요하게 작용합니다.
+주어진 데이터에서 인문사회과학대학이나 상경대학의 경우, 평균 점수가 439.60에서 452.57까지 다양하며 표준 편차도 다르므로, 4.5라는 점수만으로는 확실한 판단을 내리기 어렵습니다.
+추가 모집에 합격할 수 있는 방법은 다음과 같습니다:
+1. **경쟁률 확인**: 지원하는 단과대학과 모집단위의 경쟁률을 확인합니다.
+2. **평균 점수 및 표준 편차**: 해당 단과대학과 모집단위의 평균 점수와 표준 편차를 파악합니다.
+3. **자기 조사**: 지원자의 개인적인 성적, 경쟁력을 고려하여 합격 가능성을 판단합니다.
+예를 들어, 인문사회과학대학에서 법학과 모집단위의 경우 평균 점수가 439.60이고 표준 편차가 5.24이므로, 4.5라는 점수는 상대적으로 낮은 수치입니다. 그러나 경쟁률이 높지 않다면 합격 가능성은 있습니다.
+따라서, 정확한 판단을 내리기 위해서는 지원하는 단과대학과 모집단위의 구체적인 정보를 확인해야 합니다. 필요하다면, 대학 입학처에 문의하거나, 전형요소 반영비율 및 동점자 처리기준 등 관련 정보를 참고하시길 바랍니다.
+더 자세한 정보나 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 대학 입학처에 문의해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과에 대한 구체적인 정보를 제공하지 않고, 해당 학과의 평균 등급에 대한 언급이 없으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 신소재공학과에 대한 정보가 포함되어 있지 않다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과에 대한 질문에 대한 답변을 제공하려고 하지만, 실제로는 관련 정보가 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 신소재공학과에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 있어 다소 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 부족으로 인해 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.599475414762102</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 신소재공학과에 대한 데이터가 포함되어 있지 않습니다. 다른 전형이나 단과대학, 모집단위에 대한 정보만 있습니다. 정시 모집에서 신소재공학과를 지원하려면 동의대학교의 공식 웹사이트인 "https://ipsi. deu.ac.kr/main.do"를 방문하여 최신 정보와 합격 기준을 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 447점의 표준 점수가 작년에 신소재공학과의 평균 점수보다 높았다면 가능성이 낮다고 주장하고 있습니다. 그러나 원본 텍스트에서는 447점이 평균 점수인 378.15점보다 훨씬 높다고 명시하고 있어, 이 주장은 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 447점이 합격 가능성이 매우 높다고 언급하고 있지만, 생성된 응답은 그 가능성이 낮다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 추가적인 정보 요청도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 메시지와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 평균 점수에 대한 언급이 원본과 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 447점이 평균 점수보다 높다는 사실을 무시하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 불일치로 인해 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 해석으로 인해 의미 전달이 부정확합니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 제공이 이루어졌습니다. 그러나 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7603681635816031</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점의 표준 점수가 동의대학교 정시에서 환산되더라도 작년에 신소재공학과의 최종 평균 점수가 447점보다 높았다면, 그 가능성은 매우 낮습니다. 하지만 정확한 답변을 위해서는 다음과 같은 정보가 필요합니다:
+1. 작년 신소재공학과의 모집 인원 수
+2. 작년 신소재공학과의 지원 인원 수
+3. 작년 신소재공학과의 표준 변환 점수 평균 및 표준 편차
+이 정보를 바탕으로 작년에 해당 학과의 경쟁률을 계산하고, 현재의 점수가 작년보다 높은 경우에도 충원 가능한지 확인할 수 있습니다.
+만약 위의 정보가 부족하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 동의대학교 입학처 웹사이트에서 필요한 정보를 확인해 보시는 것이 좋습니다. 해당 웹사이트에서는 작년의 모집 및 지원 인원 수와 표준 변환 점수 등 관련 정보를 제공하고 있을 것입니다.
+이러한 정보가 있으면 더 정확한 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 성적 기준과 관련된 정보를 잘 반영하고 있으며, 4.1~4.2 등급대의 성적에 대한 가능성을 언급하고 있습니다. 그러나, 학생부 성적과 면접 성적에 대한 구체적인 수치나 기준이 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 신소재공학부의 성적 기준과 합격 가능성에 대한 설명이 잘 연결되어 있습니다. 다만, 일부 세부 사항에서 원본 텍스트와의 일치성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학부의 성적 기준과 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 몇몇 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적 기준에 대한 설명이 적절합니다. 그러나 구체적인 수치나 기준이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 몇몇 부분에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5793908408270351</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이면, 정시 성적 산출 방식에 따라 4.1 ~ 4.2 정도의 점수가 나올 것으로 보입니다. 신소재공학부 일반학생전형에서는 수능과 학생부 성적을 반영합니다.
+신소재공학부의 경우, 수능 영역별 표준점수와 학생부 등급점수를 반영하여 최종 점수가 산출됩니다. 4.1 ~ 4.2 정도의 등급점수라면, 학생부 성적 부분에서 좋은 평가를 받을 가능성은 있습니다.
+하지만, 신소재공학과는 경쟁이 매우 치열한 학과로 알려져 있어, 최종적으로 붙을 수 있을지는 여러 요인에 따라 달라질 수 있습니다. 예를 들어:
+1. **수능 성적**: 수능 영역별 표준점수가 중요합니다.
+2. **학생부 성적**: 등급 평균이 높다면 유리할 수 있습니다.
+3. **면접 성적**: 일부 학과에서는 면접 성적이 중요한 요소일 수 있습니다.
+따라서, 4.1 ~ 4.2의 등급점수를 가지고 신소재공학부에 지원한다면, 좋은 결과를 얻을 수 있을 가능성은 있지만, 확실한 것은 아닙니다. 정확한 판단을 위해서는 해당 학과의 전형요소 반영비율과 동일한 성적을 가진 다른 지원자의 경쟁력을 고려해야 합니다.
+추가적으로, 면접 준비와 학생부 활동 등에 대한 자세한 정보를 확인하고, 필요하다면 추가적인 지원 전략을 수립하는 것이 좋습니다. 더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 링크에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 구체적인 성적 기준을 제공하지 않고 있으며, 700점 이상의 목표를 제시하고 있습니다. 그러나 원본 텍스트에는 평균 점수와 표준 편차 등 구체적인 성적 정보가 포함되어 있어, 이와 관련된 정보가 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 모집 인원이 40명이라고 언급했지만, 원본 텍스트에서는 15명으로 명시되어 있습니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 대한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 정보와는 관련이 적습니다. 따라서 관련성 점수가 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하여 작성되었으나, 원본 텍스트의 정보와 연결되지 않아 논리적인 흐름이 약간 부족합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 반영하지 않고 있으며, 잘못된 정보(모집 인원 등)를 포함하고 있습니다. 이로 인해 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원본 텍스트의 구체적인 정보와는 다소 동떨어져 있습니다. 따라서 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7491360905445097</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 인공지능학과의 수능 일반 학생 전형에 대한 최소 점수 기준은 제공되지 않았습니다. 하지만, 대체로 ICT융합공과대학 내에서 인공지능학과는 정원 내 모집인원이 40명으로 적게 설정되어 있어 경쟁률이 높을 것으로 예상됩니다.
+일반적으로 수능 점수 기준은 다음과 같은 요소들을 고려하여 결정됩니다:
+1. 전년도 입학생의 성적 분포
+2. 모집인원과 지원자의 비율
+3. 학과 특성 및 교육 목표
+따라서, 인공지능학과에 가고 싶다면 최소 700점 이상을 목표로 해야 할 것입니다. 실제 수능 점수 기준은 입시 결과 발표 시 확인할 수 있습니다.
+추가적으로, 동의대학교는 다양한 전형이 있으므로, 나군(학생부교과)이나 다군(학생부종합) 등 다른 전형에서도 지원을 고려해 보실 수 있습니다. 각 전형별로 요구되는 서류와 절차를 확인하시고 준비하시면 좋겠습니다.
+더 궁금한 사항이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 구체적인 정보를 제공하지 않고, 수능 최저 기준 및 정시 모집군 정보를 확인해야 한다고 언급하고 있습니다. 이는 원본 텍스트에서 제공된 구체적인 학과별 성적 정보와 충원 합격 가능성에 대한 내용을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 충원 합격 가능성에 대한 구체적인 정보를 제공하지 않고 있습니다. 원본 텍스트는 5.27 성적으로 충원 합격이 가능한 학과를 명시하고 있으나, 생성된 응답은 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 추합 가능성을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 학과 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트의 정보와 관련이 적어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 주제를 가지고 있으나, 원본 텍스트의 정보와 연결되지 않아 전체적인 일관성이 떨어집니다. 따라서 중간 정도의 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 조언을 제공하고 있습니다. 이는 원본 텍스트의 정확한 정보와는 거리가 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하나, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 중간 정도의 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트의 정보와 관련이 적어 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5265608265737121</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능성을 판단하기 위해서는 해당 학교와 관련된 수능 최저 기준 및 정시 모집군 정보를 확인해야 합니다.
+현재 제공된 정보 중에서 수능 위주 전형의 경우, 수능 최저 기준이 없기 때문에 수능 성적만으로도 추합 가능성이 있습니다. 하지만 정시 모집군과 해당 학교의 수능 최저 기준을 확인하여 더 정확한 판단을 내리실 것을 권장드립니다.
+추가 정보를 제공해주시면, 좀 더 구체적인 답변을 드릴 수 있을 것 같습니다. 필요하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 지원자의 정시 성적을 비교하며, 합격 가능성에 대한 정보를 제공합니다. 그러나 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 정보는 추가적이지만 전반적으로 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 모집 인원에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주된 내용과는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 성적과 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 경쟁률과 모집 인원에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 성적과 관련된 정보는 정확하지만, 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받습니다. 그러나 일부 정보의 추가로 인해 일관성이 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 주제와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.5947011591240948</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 보면, 지원 인원이 146명이고 모집 인원은 30명입니다. 경쟁률은 약 4.9배로 높습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이고, 지원자의 정시 성적 4.2는 이보다 훨씬 높습니다. 또한, 전형요소 반영비율에서 수능이 30%를 차지하고 있어, 수능 점수가 합격에 큰 영향을 미칠 것입니다.
+정시 성적이 4.2라면, 지원자의 성적은 상당히 우수한 편입니다. 그러나 경쟁률이 높고 모집 인원이 제한적이므로, 합격 가능성은 높지 않을 것으로 예상됩니다. 하지만 최종 합격 여부는 수능 점수와 면접 등 다른 요소들에 따라 결정되므로, 정확한 판단을 위해서는 수능 점수를 포함하여 전반적인 평가를 받아보시는 것이 좋습니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 수능 최저 기준 및 정시 모집군에 대한 정보를 확인해야 한다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 제공된 3.92의 성적이 합격 가능성이 높다는 점을 명확히 언급하지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 명확한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트는 3.92의 성적이 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 이를 명확히 반영하지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부의 일반학생전형에 지원 가능성을 판단하기 위한 정보를 제공하고 있으며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 핵심 메시지를 완전히 반영하지 못한 점에서 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 합격 가능성에 대한 명확한 언급이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으나, 일관성과 정확성에서 약간의 부족함이 있어 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있으나, 합격 가능성에 대한 명확한 언급이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있으나, 일부 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.748147491563369</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 주어졌을 때, 화학환경공학부의 일반학생전형에 지원이 가능한지 판단하기 위해서는 해당 학과의 수능 최저 기준 및 정시 모집군 정보를 확인해야 합니다.
+현재 제공된 정보로는 특정 학과의 정시 모집군과 수능 최저 기준을 명확히 알 수 없습니다. 따라서, 화학환경공학부 일반학생전형에 지원이 가능한지 판단하기 위해서는 다음 사항들을 확인해 보셔야 합니다:
+1. **화학환경공학부의 정시 모집군**: 해당 학과가 어떤 정시 모집군에 속하는지 확인해야 합니다.
+2. **수능 최저 기준**: 화학환경공학부의 일반학생전형에 대한 수능 최저 기준을 확인해야 합니다.
+만약, 특정 정보를 찾는 데 어려움이 있다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시거나, 대학 입학처에 직접 문의하시기 바랍니다. 그곳에서는 가장 정확한 정보와 지원 가능성을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 점수 평균과 표준 편차에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트의 사실과 일치하지 않습니다. 원본 텍스트에서는 평균 점수가 385.99로 제시되었으나, 생성된 응답에서는 419.33로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트의 합격 가능성에 대한 판단과는 다른 정보를 제공하고 있으며, 경쟁률에 대한 언급도 원본 텍스트와는 다릅니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 나열하고 있으나, 논리적인 흐름이 다소 부족합니다. 특히, 결론 부분에서 원본 텍스트의 판단과는 다른 방향으로 나아가고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 수능 점수 평균에 대한 잘못된 정보가 문제입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있으나, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보의 정확성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6811835908842452</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 수능 위주 전형에 대한 정보를 바탕으로 답변드리겠습니다.
+1. **수능 최저 기준 확인**: 2024학년도 동의대학교는 수능 최저기준이 없으므로, 수능 점수가 있는 경우 합격 가능성이 있습니다.
+2. **수능 점수 평균 및 표준 편차**: 2024학년도 화학환경공학부의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 419.33, 표준 편차는 9.73입니다.
+   - 이 데이터를 바탕으로, 수능 점수가 425이므로, 평균보다 약간 높은 점수를 얻은 것으로 판단됩니다.
+3. **경쟁률**: 화학환경공학부의 경쟁률을 확인해야 합니다. 하지만, 현재 제공된 정보만으로는 정확한 경쟁률을 알 수 없습니다.
+4. **결론**: 425이라는 점수는 평균보다 약간 높은 점수이므로, 합격 가능성은 있습니다. 그러나 최종 합격 여부는 경쟁률과 함께 고려되어야 합니다.
+따라서, 수능 점수가 425이라면, 동의대학교 화학환경공학부에 수능 위주 전형으로 합격 가능성이 있으나, 정확한 확률을 알기 위해서는 해당 학과의 경쟁률을 확인해야 합니다. 더 자세한 정보를 얻으시려면, 동의대학교 입학처 웹사이트 또는 직접 문의하시는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do
+이 링크를 통해 더 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.2라는 점수에 대한 판단을 내리기 어렵다고 언급하고 있으며, 이는 원본 텍스트의 정보와 일치하지 않습니다. 원본 텍스트는 4.2점이 영화학과에 합격할 가능성이 있다고 명시하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 평균 성적과 표준 편차를 언급하고 있지만, 4.2점에 대한 해석이 상반되어 일관성이 부족합니다. 원본 텍스트는 합격 가능성을 언급하고 있으나, 생성된 응답은 이를 부정적으로 해석하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 평균 성적 및 관련 요소들을 잘 설명하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 4.2점에 대한 해석이 원본과 상충하여 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 부족함이 있어 종합 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6116675114864403</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 판단하기 어렵습니다. 영화학과의 경우, 평균 수능 4개 영역 등급이 5.04로, 표준 편차가 0.76이라는 것을 볼 수 있습니다.
+현재 제공된 정보만으로는 정확한 예측을 하기 어려우며, 지원자의 개인적인 학업 역량과 전공적합성 등 다양한 요소들이 고려됩니다. 따라서, 다음과 같은 점들을 참고하시면 좋을 것 같습니다:
+1. **수능 4개 영역 등급 평균**: 영화학과의 경우 평균이 5.04로, 표준 편차가 0.76입니다. 이는 대부분 지원자의 수능 점수가 4.28에서 5.80 사이에 분포하고 있다는 것을 의미합니다.
+2. **전공적합성**: 지원동기와 학업계획, 전공적합성 등 면접에서의 성과도 중요하게 평가됩니다. 이 부분에서는 지원자의 진로 탐색 활동이나 관련 교내활동 경험 등을 잘 설명하는 것이 좋습니다.
+3. **학업역량**: 고교 생활 중 학업에 대한 어려움과 해결하기 위한 노력, 문제해결 능력 등이 평가됩니다.
+4. **공동체역량**: 협업능력, 배려, 행동특성 등을 잘 보여주는 것이 중요합니다.
+따라서, 4.2라는 점수만으로는 합격 여부를 단정 짓기 어렵습니다. 지원자의 전반적인 성적과 면접에서의 답변 내용을 종합적으로 고려해야 합니다. 만약 불안하다면, 해당 대학의 입학사정관에게 문의하거나, 추가로 준비할 수 있는 부분이 있다면 이를 통해 자신의 강점을 더 잘 보여줄 수 있을 것입니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 링크에서 공식 입학사정관과 상담을 받으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 내용도 면접 절차에 대한 설명으로 적절합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 면접 절차에 대한 추가적인 설명도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8423196764278027</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 개별면접 형태로 진행되며, 면접위원 2~3인이 평가위원으로 참여하여 수험생을 대상으로 개별적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
